--- a/contentspreadsheets/MasterContentNewAUDprices.xlsx
+++ b/contentspreadsheets/MasterContentNewAUDprices.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1804">
   <si>
     <t>1310038SS</t>
   </si>
@@ -5129,141 +5129,6 @@
     <t>FPSS13051</t>
   </si>
   <si>
-    <t>FPSS1305</t>
-  </si>
-  <si>
-    <t>1310003S</t>
-  </si>
-  <si>
-    <t>1310006L</t>
-  </si>
-  <si>
-    <t>1310010S</t>
-  </si>
-  <si>
-    <t>1310012L</t>
-  </si>
-  <si>
-    <t>1310013L</t>
-  </si>
-  <si>
-    <t>1310014L</t>
-  </si>
-  <si>
-    <t>1310016L</t>
-  </si>
-  <si>
-    <t>1310020L</t>
-  </si>
-  <si>
-    <t>1310022L</t>
-  </si>
-  <si>
-    <t>1310024L</t>
-  </si>
-  <si>
-    <t>1310028L</t>
-  </si>
-  <si>
-    <t>1310026L</t>
-  </si>
-  <si>
-    <t>1310002L</t>
-  </si>
-  <si>
-    <t>FPSS13001L</t>
-  </si>
-  <si>
-    <t>4B046S</t>
-  </si>
-  <si>
-    <t>FPSS13004L</t>
-  </si>
-  <si>
-    <t>FPSS13017S</t>
-  </si>
-  <si>
-    <t>FPSS13024L</t>
-  </si>
-  <si>
-    <t>4B045S</t>
-  </si>
-  <si>
-    <t>FPSS13028S</t>
-  </si>
-  <si>
-    <t>FPSS13048L</t>
-  </si>
-  <si>
-    <t>FPSS13033S</t>
-  </si>
-  <si>
-    <t>FPSS13016S</t>
-  </si>
-  <si>
-    <t>FPSS13006L</t>
-  </si>
-  <si>
-    <t>FPSS13037S</t>
-  </si>
-  <si>
-    <t>FPSS13058L</t>
-  </si>
-  <si>
-    <t>FPSS13062L</t>
-  </si>
-  <si>
-    <t>4B027S</t>
-  </si>
-  <si>
-    <t>4B028L</t>
-  </si>
-  <si>
-    <t>4B031L</t>
-  </si>
-  <si>
-    <t>4B035L</t>
-  </si>
-  <si>
-    <t>4B001L</t>
-  </si>
-  <si>
-    <t>4B005S</t>
-  </si>
-  <si>
-    <t>4B007L</t>
-  </si>
-  <si>
-    <t>4B021S</t>
-  </si>
-  <si>
-    <t>4B003S</t>
-  </si>
-  <si>
-    <t>4B018L</t>
-  </si>
-  <si>
-    <t>4B022S</t>
-  </si>
-  <si>
-    <t>4B049S</t>
-  </si>
-  <si>
-    <t>4B009L</t>
-  </si>
-  <si>
-    <t>4B051S</t>
-  </si>
-  <si>
-    <t>4B020L</t>
-  </si>
-  <si>
-    <t>4B002L</t>
-  </si>
-  <si>
-    <t>4B012L</t>
-  </si>
-  <si>
     <t>4b067</t>
   </si>
   <si>
@@ -5288,9 +5153,6 @@
     <t>4b056</t>
   </si>
   <si>
-    <t>1310014</t>
-  </si>
-  <si>
     <t>4b073</t>
   </si>
   <si>
@@ -5378,9 +5240,6 @@
     <t>SULTRY SIREN</t>
   </si>
   <si>
-    <t xml:space="preserve">CLASSIC LITTLE BLACK LACE </t>
-  </si>
-  <si>
     <t>GYPSY WOLF</t>
   </si>
   <si>
@@ -5399,9 +5258,6 @@
     <t>NOW YOU SEE ME</t>
   </si>
   <si>
-    <t>TWO PIECES DELIGHT</t>
-  </si>
-  <si>
     <t>LADY STARDUST</t>
   </si>
   <si>
@@ -5420,12 +5276,6 @@
     <t>CLASSIC PEPLUM</t>
   </si>
   <si>
-    <t>STEAMLINED MINI</t>
-  </si>
-  <si>
-    <t>HEAVELLY TULLE</t>
-  </si>
-  <si>
     <t>INTO THE WILD</t>
   </si>
   <si>
@@ -5543,9 +5393,6 @@
     <t>Swept away II</t>
   </si>
   <si>
-    <t>Night watch</t>
-  </si>
-  <si>
     <t>Ebayxfame</t>
   </si>
   <si>
@@ -5628,6 +5475,81 @@
   </si>
   <si>
     <t>Pale</t>
+  </si>
+  <si>
+    <t>4b005ss</t>
+  </si>
+  <si>
+    <t>4b009dl</t>
+  </si>
+  <si>
+    <t>4b046</t>
+  </si>
+  <si>
+    <t>STREAMLINED MINI</t>
+  </si>
+  <si>
+    <t>HEAVENLY TULLE</t>
+  </si>
+  <si>
+    <t>TWO PIECE DELIGHT</t>
+  </si>
+  <si>
+    <t>4b007dl</t>
+  </si>
+  <si>
+    <t>4b001dl</t>
+  </si>
+  <si>
+    <t>4b051ss</t>
+  </si>
+  <si>
+    <t>4b021ss</t>
+  </si>
+  <si>
+    <t>4b018sl</t>
+  </si>
+  <si>
+    <t>4b022ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIC LITTLE BLACK DRESS </t>
+  </si>
+  <si>
+    <t>4b031cl</t>
+  </si>
+  <si>
+    <t>fpss13016</t>
+  </si>
+  <si>
+    <t>4b020dl</t>
+  </si>
+  <si>
+    <t>4b003ss</t>
+  </si>
+  <si>
+    <t>4b035dl</t>
+  </si>
+  <si>
+    <t>4b002dl</t>
+  </si>
+  <si>
+    <t>4b045</t>
+  </si>
+  <si>
+    <t>fpss13062</t>
+  </si>
+  <si>
+    <t>4b049</t>
+  </si>
+  <si>
+    <t>4b012sl</t>
+  </si>
+  <si>
+    <t>4b028sl</t>
+  </si>
+  <si>
+    <t>4b027ss</t>
   </si>
 </sst>
 </file>
@@ -5642,7 +5564,7 @@
     <numFmt numFmtId="166" formatCode="[$GBP]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5873,8 +5795,23 @@
       <sz val="10"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5935,8 +5872,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -6059,21 +6008,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="hair">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="9"/>
       </left>
@@ -7275,7 +7209,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -7421,32 +7355,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7542,9 +7461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7566,6 +7482,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1154">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -10722,13 +10679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR107"/>
+  <dimension ref="A1:IR106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10965,294 +10922,294 @@
       <c r="AR7" s="5"/>
     </row>
     <row r="8" spans="1:252" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="116" t="s">
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="117" t="s">
+      <c r="Q8" s="108"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="117"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="118" t="s">
+      <c r="AB8" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="119" t="s">
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="111" t="s">
         <v>115</v>
       </c>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="119"/>
-      <c r="AO8" s="119"/>
-      <c r="AP8" s="119"/>
-      <c r="AQ8" s="119"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
-      <c r="BC8" s="119"/>
-      <c r="BD8" s="119"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="119"/>
-      <c r="BG8" s="119"/>
-      <c r="BH8" s="119"/>
-      <c r="BI8" s="119"/>
-      <c r="BJ8" s="119"/>
-      <c r="BK8" s="119"/>
-      <c r="BL8" s="119"/>
-      <c r="BM8" s="119"/>
-      <c r="BN8" s="119"/>
-      <c r="BO8" s="119"/>
-      <c r="BP8" s="119"/>
-      <c r="BQ8" s="119"/>
-      <c r="BR8" s="119"/>
-      <c r="BS8" s="119"/>
-      <c r="BT8" s="119"/>
-      <c r="BU8" s="119"/>
-      <c r="BV8" s="119"/>
-      <c r="BW8" s="119"/>
-      <c r="BX8" s="119"/>
-      <c r="BY8" s="119"/>
-      <c r="BZ8" s="119"/>
-      <c r="CA8" s="119"/>
-      <c r="CB8" s="119"/>
-      <c r="CC8" s="119"/>
-      <c r="CD8" s="119"/>
-      <c r="CE8" s="119"/>
-      <c r="CF8" s="119"/>
-      <c r="CG8" s="119"/>
-      <c r="CH8" s="119"/>
-      <c r="CI8" s="119"/>
-      <c r="CJ8" s="119"/>
-      <c r="CK8" s="119"/>
-      <c r="CL8" s="119"/>
-      <c r="CM8" s="119"/>
-      <c r="CN8" s="119"/>
-      <c r="CO8" s="119"/>
-      <c r="CP8" s="119"/>
-      <c r="CQ8" s="119"/>
-      <c r="CR8" s="119"/>
-      <c r="CS8" s="119"/>
-      <c r="CT8" s="119"/>
-      <c r="CU8" s="119"/>
-      <c r="CV8" s="119"/>
-      <c r="CW8" s="119"/>
-      <c r="CX8" s="119"/>
-      <c r="CY8" s="119"/>
-      <c r="CZ8" s="119"/>
-      <c r="DA8" s="119"/>
-      <c r="DB8" s="119"/>
-      <c r="DC8" s="119"/>
-      <c r="DD8" s="119"/>
-      <c r="DE8" s="119"/>
-      <c r="DF8" s="119"/>
-      <c r="DG8" s="119"/>
-      <c r="DH8" s="119"/>
-      <c r="DI8" s="119"/>
-      <c r="DJ8" s="119"/>
-      <c r="DK8" s="118" t="s">
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="111"/>
+      <c r="BR8" s="111"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="111"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="111"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="111"/>
+      <c r="BZ8" s="111"/>
+      <c r="CA8" s="111"/>
+      <c r="CB8" s="111"/>
+      <c r="CC8" s="111"/>
+      <c r="CD8" s="111"/>
+      <c r="CE8" s="111"/>
+      <c r="CF8" s="111"/>
+      <c r="CG8" s="111"/>
+      <c r="CH8" s="111"/>
+      <c r="CI8" s="111"/>
+      <c r="CJ8" s="111"/>
+      <c r="CK8" s="111"/>
+      <c r="CL8" s="111"/>
+      <c r="CM8" s="111"/>
+      <c r="CN8" s="111"/>
+      <c r="CO8" s="111"/>
+      <c r="CP8" s="111"/>
+      <c r="CQ8" s="111"/>
+      <c r="CR8" s="111"/>
+      <c r="CS8" s="111"/>
+      <c r="CT8" s="111"/>
+      <c r="CU8" s="111"/>
+      <c r="CV8" s="111"/>
+      <c r="CW8" s="111"/>
+      <c r="CX8" s="111"/>
+      <c r="CY8" s="111"/>
+      <c r="CZ8" s="111"/>
+      <c r="DA8" s="111"/>
+      <c r="DB8" s="111"/>
+      <c r="DC8" s="111"/>
+      <c r="DD8" s="111"/>
+      <c r="DE8" s="111"/>
+      <c r="DF8" s="111"/>
+      <c r="DG8" s="111"/>
+      <c r="DH8" s="111"/>
+      <c r="DI8" s="111"/>
+      <c r="DJ8" s="111"/>
+      <c r="DK8" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="DL8" s="118"/>
-      <c r="DM8" s="118"/>
-      <c r="DN8" s="118"/>
-      <c r="DO8" s="118"/>
-      <c r="DP8" s="118"/>
-      <c r="DQ8" s="118"/>
-      <c r="DR8" s="117" t="s">
+      <c r="DL8" s="110"/>
+      <c r="DM8" s="110"/>
+      <c r="DN8" s="110"/>
+      <c r="DO8" s="110"/>
+      <c r="DP8" s="110"/>
+      <c r="DQ8" s="110"/>
+      <c r="DR8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="DS8" s="117"/>
-      <c r="DT8" s="117"/>
-      <c r="DU8" s="117"/>
-      <c r="DV8" s="117"/>
-      <c r="DW8" s="117"/>
-      <c r="DX8" s="117"/>
-      <c r="DY8" s="116" t="s">
+      <c r="DS8" s="109"/>
+      <c r="DT8" s="109"/>
+      <c r="DU8" s="109"/>
+      <c r="DV8" s="109"/>
+      <c r="DW8" s="109"/>
+      <c r="DX8" s="109"/>
+      <c r="DY8" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="DZ8" s="116"/>
-      <c r="EA8" s="116"/>
-      <c r="EB8" s="116"/>
-      <c r="EC8" s="116"/>
-      <c r="ED8" s="116"/>
+      <c r="DZ8" s="108"/>
+      <c r="EA8" s="108"/>
+      <c r="EB8" s="108"/>
+      <c r="EC8" s="108"/>
+      <c r="ED8" s="108"/>
     </row>
     <row r="9" spans="1:252" s="8" customFormat="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="117"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
       <c r="AA9" s="7"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="119"/>
-      <c r="AQ9" s="119"/>
-      <c r="AR9" s="119"/>
-      <c r="AS9" s="119"/>
-      <c r="AT9" s="119"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="119"/>
-      <c r="AW9" s="119"/>
-      <c r="AX9" s="119"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
-      <c r="BC9" s="119"/>
-      <c r="BD9" s="119"/>
-      <c r="BE9" s="119"/>
-      <c r="BF9" s="119"/>
-      <c r="BG9" s="119"/>
-      <c r="BH9" s="119"/>
-      <c r="BI9" s="119"/>
-      <c r="BJ9" s="119"/>
-      <c r="BK9" s="119"/>
-      <c r="BL9" s="119"/>
-      <c r="BM9" s="119"/>
-      <c r="BN9" s="119"/>
-      <c r="BO9" s="119"/>
-      <c r="BP9" s="119"/>
-      <c r="BQ9" s="119"/>
-      <c r="BR9" s="119"/>
-      <c r="BS9" s="119"/>
-      <c r="BT9" s="119"/>
-      <c r="BU9" s="119"/>
-      <c r="BV9" s="119"/>
-      <c r="BW9" s="119"/>
-      <c r="BX9" s="119"/>
-      <c r="BY9" s="119"/>
-      <c r="BZ9" s="119"/>
-      <c r="CA9" s="119"/>
-      <c r="CB9" s="119"/>
-      <c r="CC9" s="119"/>
-      <c r="CD9" s="119"/>
-      <c r="CE9" s="119"/>
-      <c r="CF9" s="119"/>
-      <c r="CG9" s="119"/>
-      <c r="CH9" s="119"/>
-      <c r="CI9" s="119"/>
-      <c r="CJ9" s="119"/>
-      <c r="CK9" s="119"/>
-      <c r="CL9" s="119"/>
-      <c r="CM9" s="119"/>
-      <c r="CN9" s="119"/>
-      <c r="CO9" s="119"/>
-      <c r="CP9" s="119"/>
-      <c r="CQ9" s="119"/>
-      <c r="CR9" s="119"/>
-      <c r="CS9" s="119"/>
-      <c r="CT9" s="119"/>
-      <c r="CU9" s="119"/>
-      <c r="CV9" s="119"/>
-      <c r="CW9" s="119"/>
-      <c r="CX9" s="119"/>
-      <c r="CY9" s="119"/>
-      <c r="CZ9" s="119"/>
-      <c r="DA9" s="119"/>
-      <c r="DB9" s="119"/>
-      <c r="DC9" s="119"/>
-      <c r="DD9" s="119"/>
-      <c r="DE9" s="119"/>
-      <c r="DF9" s="119"/>
-      <c r="DG9" s="119"/>
-      <c r="DH9" s="119"/>
-      <c r="DI9" s="119"/>
-      <c r="DJ9" s="119"/>
-      <c r="DK9" s="118"/>
-      <c r="DL9" s="118"/>
-      <c r="DM9" s="118"/>
-      <c r="DN9" s="118"/>
-      <c r="DO9" s="118"/>
-      <c r="DP9" s="118"/>
-      <c r="DQ9" s="118"/>
-      <c r="DR9" s="117"/>
-      <c r="DS9" s="117"/>
-      <c r="DT9" s="117"/>
-      <c r="DU9" s="117"/>
-      <c r="DV9" s="117"/>
-      <c r="DW9" s="117"/>
-      <c r="DX9" s="117"/>
-      <c r="DY9" s="116"/>
-      <c r="DZ9" s="116"/>
-      <c r="EA9" s="116"/>
-      <c r="EB9" s="116"/>
-      <c r="EC9" s="116"/>
-      <c r="ED9" s="116"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="111"/>
+      <c r="BJ9" s="111"/>
+      <c r="BK9" s="111"/>
+      <c r="BL9" s="111"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="111"/>
+      <c r="BO9" s="111"/>
+      <c r="BP9" s="111"/>
+      <c r="BQ9" s="111"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="111"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+      <c r="CC9" s="111"/>
+      <c r="CD9" s="111"/>
+      <c r="CE9" s="111"/>
+      <c r="CF9" s="111"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="111"/>
+      <c r="CJ9" s="111"/>
+      <c r="CK9" s="111"/>
+      <c r="CL9" s="111"/>
+      <c r="CM9" s="111"/>
+      <c r="CN9" s="111"/>
+      <c r="CO9" s="111"/>
+      <c r="CP9" s="111"/>
+      <c r="CQ9" s="111"/>
+      <c r="CR9" s="111"/>
+      <c r="CS9" s="111"/>
+      <c r="CT9" s="111"/>
+      <c r="CU9" s="111"/>
+      <c r="CV9" s="111"/>
+      <c r="CW9" s="111"/>
+      <c r="CX9" s="111"/>
+      <c r="CY9" s="111"/>
+      <c r="CZ9" s="111"/>
+      <c r="DA9" s="111"/>
+      <c r="DB9" s="111"/>
+      <c r="DC9" s="111"/>
+      <c r="DD9" s="111"/>
+      <c r="DE9" s="111"/>
+      <c r="DF9" s="111"/>
+      <c r="DG9" s="111"/>
+      <c r="DH9" s="111"/>
+      <c r="DI9" s="111"/>
+      <c r="DJ9" s="111"/>
+      <c r="DK9" s="110"/>
+      <c r="DL9" s="110"/>
+      <c r="DM9" s="110"/>
+      <c r="DN9" s="110"/>
+      <c r="DO9" s="110"/>
+      <c r="DP9" s="110"/>
+      <c r="DQ9" s="110"/>
+      <c r="DR9" s="109"/>
+      <c r="DS9" s="109"/>
+      <c r="DT9" s="109"/>
+      <c r="DU9" s="109"/>
+      <c r="DV9" s="109"/>
+      <c r="DW9" s="109"/>
+      <c r="DX9" s="109"/>
+      <c r="DY9" s="108"/>
+      <c r="DZ9" s="108"/>
+      <c r="EA9" s="108"/>
+      <c r="EB9" s="108"/>
+      <c r="EC9" s="108"/>
+      <c r="ED9" s="108"/>
       <c r="EE9" s="44"/>
     </row>
     <row r="10" spans="1:252" s="10" customFormat="1" ht="45" customHeight="1">
@@ -11488,10 +11445,10 @@
       <c r="DZ10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="EA10" s="115" t="s">
+      <c r="EA10" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="EB10" s="115"/>
+      <c r="EB10" s="107"/>
       <c r="EC10" s="18" t="s">
         <v>121</v>
       </c>
@@ -11863,34 +11820,35 @@
       </c>
     </row>
     <row r="13" spans="1:252" ht="16">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D13" s="69">
+      <c r="B13" s="114" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C13" s="129"/>
+      <c r="D13" s="115">
         <v>165</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="78"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="Q13" s="42" t="s">
         <v>894</v>
       </c>
       <c r="R13" s="42" t="s">
-        <v>1804</v>
+        <v>1753</v>
       </c>
       <c r="S13" s="42" t="s">
         <v>890</v>
@@ -11903,107 +11861,107 @@
       <c r="Y13" s="61"/>
       <c r="Z13" s="43"/>
       <c r="AA13" s="42"/>
-      <c r="AB13" s="77"/>
+      <c r="AB13" s="70"/>
       <c r="AC13" s="35"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
       <c r="AH13" s="42"/>
-      <c r="AI13" s="79"/>
+      <c r="AI13" s="72"/>
       <c r="AJ13" s="42"/>
-      <c r="AK13" s="80"/>
-      <c r="AL13" s="79"/>
-      <c r="AM13" s="79"/>
+      <c r="AK13" s="73"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
       <c r="AN13" s="42"/>
-      <c r="AO13" s="81"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
       <c r="AR13" s="42"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="83"/>
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="76"/>
       <c r="AV13" s="42"/>
-      <c r="AW13" s="83"/>
-      <c r="AX13" s="79"/>
-      <c r="AY13" s="83"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="76"/>
       <c r="AZ13" s="42"/>
-      <c r="BA13" s="83"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="83"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="76"/>
       <c r="BD13" s="42"/>
-      <c r="BE13" s="83"/>
-      <c r="BF13" s="79"/>
-      <c r="BG13" s="83"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="76"/>
       <c r="BH13" s="42"/>
-      <c r="BI13" s="83"/>
-      <c r="BJ13" s="79"/>
-      <c r="BK13" s="83"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="76"/>
       <c r="BL13" s="42"/>
-      <c r="BM13" s="84"/>
-      <c r="BN13" s="79"/>
-      <c r="BO13" s="83"/>
+      <c r="BM13" s="77"/>
+      <c r="BN13" s="72"/>
+      <c r="BO13" s="76"/>
       <c r="BP13" s="42"/>
-      <c r="BQ13" s="85"/>
-      <c r="BR13" s="79"/>
-      <c r="BS13" s="83"/>
+      <c r="BQ13" s="78"/>
+      <c r="BR13" s="72"/>
+      <c r="BS13" s="76"/>
       <c r="BT13" s="42"/>
-      <c r="BU13" s="83"/>
-      <c r="BV13" s="79"/>
-      <c r="BW13" s="83"/>
+      <c r="BU13" s="76"/>
+      <c r="BV13" s="72"/>
+      <c r="BW13" s="76"/>
       <c r="BX13" s="42"/>
-      <c r="BY13" s="84"/>
-      <c r="BZ13" s="79"/>
-      <c r="CA13" s="83"/>
+      <c r="BY13" s="77"/>
+      <c r="BZ13" s="72"/>
+      <c r="CA13" s="76"/>
       <c r="CB13" s="42"/>
-      <c r="CC13" s="83"/>
-      <c r="CD13" s="79"/>
-      <c r="CE13" s="83"/>
+      <c r="CC13" s="76"/>
+      <c r="CD13" s="72"/>
+      <c r="CE13" s="76"/>
       <c r="CF13" s="42"/>
-      <c r="CG13" s="83"/>
-      <c r="CH13" s="79"/>
-      <c r="CI13" s="83"/>
+      <c r="CG13" s="76"/>
+      <c r="CH13" s="72"/>
+      <c r="CI13" s="76"/>
       <c r="CJ13" s="42"/>
-      <c r="CK13" s="83"/>
-      <c r="CL13" s="79"/>
-      <c r="CM13" s="83"/>
+      <c r="CK13" s="76"/>
+      <c r="CL13" s="72"/>
+      <c r="CM13" s="76"/>
       <c r="CN13" s="42"/>
-      <c r="CO13" s="83"/>
-      <c r="CP13" s="79"/>
-      <c r="CQ13" s="83"/>
+      <c r="CO13" s="76"/>
+      <c r="CP13" s="72"/>
+      <c r="CQ13" s="76"/>
       <c r="CR13" s="42"/>
-      <c r="CS13" s="83"/>
-      <c r="CT13" s="79"/>
-      <c r="CU13" s="83"/>
+      <c r="CS13" s="76"/>
+      <c r="CT13" s="72"/>
+      <c r="CU13" s="76"/>
       <c r="CV13" s="42"/>
-      <c r="CW13" s="83"/>
-      <c r="CX13" s="79"/>
-      <c r="CY13" s="83"/>
+      <c r="CW13" s="76"/>
+      <c r="CX13" s="72"/>
+      <c r="CY13" s="76"/>
       <c r="CZ13" s="42"/>
-      <c r="DA13" s="83"/>
-      <c r="DB13" s="79"/>
-      <c r="DC13" s="83"/>
+      <c r="DA13" s="76"/>
+      <c r="DB13" s="72"/>
+      <c r="DC13" s="76"/>
       <c r="DD13" s="42"/>
-      <c r="DE13" s="83"/>
-      <c r="DF13" s="79"/>
-      <c r="DG13" s="83"/>
+      <c r="DE13" s="76"/>
+      <c r="DF13" s="72"/>
+      <c r="DG13" s="76"/>
       <c r="DH13" s="42"/>
-      <c r="DI13" s="83"/>
-      <c r="DJ13" s="79"/>
-      <c r="DK13" s="82"/>
-      <c r="DL13" s="82"/>
-      <c r="DM13" s="82"/>
-      <c r="DN13" s="82"/>
-      <c r="DO13" s="82"/>
-      <c r="DP13" s="82"/>
-      <c r="DQ13" s="82"/>
-      <c r="DR13" s="82"/>
-      <c r="DS13" s="82"/>
-      <c r="DT13" s="82"/>
-      <c r="DU13" s="82"/>
-      <c r="DV13" s="82"/>
-      <c r="DW13" s="82"/>
-      <c r="DX13" s="82"/>
+      <c r="DI13" s="76"/>
+      <c r="DJ13" s="72"/>
+      <c r="DK13" s="75"/>
+      <c r="DL13" s="75"/>
+      <c r="DM13" s="75"/>
+      <c r="DN13" s="75"/>
+      <c r="DO13" s="75"/>
+      <c r="DP13" s="75"/>
+      <c r="DQ13" s="75"/>
+      <c r="DR13" s="75"/>
+      <c r="DS13" s="75"/>
+      <c r="DT13" s="75"/>
+      <c r="DU13" s="75"/>
+      <c r="DV13" s="75"/>
+      <c r="DW13" s="75"/>
+      <c r="DX13" s="75"/>
       <c r="DY13" s="42"/>
       <c r="DZ13" s="42"/>
       <c r="EA13" s="42"/>
@@ -12130,23 +12088,24 @@
       <c r="IR13" s="42"/>
     </row>
     <row r="14" spans="1:252" ht="16">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D14" s="69">
+      <c r="B14" s="116" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C14" s="129"/>
+      <c r="D14" s="115">
         <v>165</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="78"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -12154,13 +12113,13 @@
         <v>100</v>
       </c>
       <c r="Q14" s="42" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="R14" s="42" t="s">
-        <v>1804</v>
+        <v>1753</v>
       </c>
       <c r="S14" s="42" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
       <c r="T14" s="42" t="s">
         <v>890</v>
@@ -12172,107 +12131,107 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
       <c r="AD14" s="35"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
       <c r="AH14" s="42"/>
-      <c r="AI14" s="79"/>
+      <c r="AI14" s="72"/>
       <c r="AJ14" s="42"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="79"/>
-      <c r="AM14" s="79"/>
+      <c r="AK14" s="73"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
       <c r="AN14" s="42"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="79"/>
-      <c r="AQ14" s="79"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
       <c r="AR14" s="42"/>
-      <c r="AS14" s="82"/>
-      <c r="AT14" s="79"/>
-      <c r="AU14" s="83"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="76"/>
       <c r="AV14" s="42"/>
-      <c r="AW14" s="83"/>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="83"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="76"/>
       <c r="AZ14" s="42"/>
-      <c r="BA14" s="83"/>
-      <c r="BB14" s="79"/>
-      <c r="BC14" s="83"/>
+      <c r="BA14" s="76"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="76"/>
       <c r="BD14" s="42"/>
-      <c r="BE14" s="83"/>
-      <c r="BF14" s="79"/>
-      <c r="BG14" s="83"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="72"/>
+      <c r="BG14" s="76"/>
       <c r="BH14" s="42"/>
-      <c r="BI14" s="83"/>
-      <c r="BJ14" s="79"/>
-      <c r="BK14" s="83"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="72"/>
+      <c r="BK14" s="76"/>
       <c r="BL14" s="42"/>
-      <c r="BM14" s="84"/>
-      <c r="BN14" s="79"/>
-      <c r="BO14" s="83"/>
+      <c r="BM14" s="77"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="76"/>
       <c r="BP14" s="42"/>
-      <c r="BQ14" s="85"/>
-      <c r="BR14" s="79"/>
-      <c r="BS14" s="83"/>
+      <c r="BQ14" s="78"/>
+      <c r="BR14" s="72"/>
+      <c r="BS14" s="76"/>
       <c r="BT14" s="42"/>
-      <c r="BU14" s="83"/>
-      <c r="BV14" s="79"/>
-      <c r="BW14" s="83"/>
+      <c r="BU14" s="76"/>
+      <c r="BV14" s="72"/>
+      <c r="BW14" s="76"/>
       <c r="BX14" s="42"/>
-      <c r="BY14" s="84"/>
-      <c r="BZ14" s="79"/>
-      <c r="CA14" s="83"/>
+      <c r="BY14" s="77"/>
+      <c r="BZ14" s="72"/>
+      <c r="CA14" s="76"/>
       <c r="CB14" s="42"/>
-      <c r="CC14" s="83"/>
-      <c r="CD14" s="79"/>
-      <c r="CE14" s="83"/>
+      <c r="CC14" s="76"/>
+      <c r="CD14" s="72"/>
+      <c r="CE14" s="76"/>
       <c r="CF14" s="42"/>
-      <c r="CG14" s="83"/>
-      <c r="CH14" s="79"/>
-      <c r="CI14" s="83"/>
+      <c r="CG14" s="76"/>
+      <c r="CH14" s="72"/>
+      <c r="CI14" s="76"/>
       <c r="CJ14" s="42"/>
-      <c r="CK14" s="83"/>
-      <c r="CL14" s="79"/>
-      <c r="CM14" s="83"/>
+      <c r="CK14" s="76"/>
+      <c r="CL14" s="72"/>
+      <c r="CM14" s="76"/>
       <c r="CN14" s="42"/>
-      <c r="CO14" s="83"/>
-      <c r="CP14" s="79"/>
-      <c r="CQ14" s="83"/>
+      <c r="CO14" s="76"/>
+      <c r="CP14" s="72"/>
+      <c r="CQ14" s="76"/>
       <c r="CR14" s="42"/>
-      <c r="CS14" s="83"/>
-      <c r="CT14" s="79"/>
-      <c r="CU14" s="83"/>
+      <c r="CS14" s="76"/>
+      <c r="CT14" s="72"/>
+      <c r="CU14" s="76"/>
       <c r="CV14" s="42"/>
-      <c r="CW14" s="83"/>
-      <c r="CX14" s="79"/>
-      <c r="CY14" s="83"/>
+      <c r="CW14" s="76"/>
+      <c r="CX14" s="72"/>
+      <c r="CY14" s="76"/>
       <c r="CZ14" s="42"/>
-      <c r="DA14" s="83"/>
-      <c r="DB14" s="79"/>
-      <c r="DC14" s="83"/>
+      <c r="DA14" s="76"/>
+      <c r="DB14" s="72"/>
+      <c r="DC14" s="76"/>
       <c r="DD14" s="42"/>
-      <c r="DE14" s="83"/>
-      <c r="DF14" s="79"/>
-      <c r="DG14" s="83"/>
+      <c r="DE14" s="76"/>
+      <c r="DF14" s="72"/>
+      <c r="DG14" s="76"/>
       <c r="DH14" s="42"/>
-      <c r="DI14" s="83"/>
-      <c r="DJ14" s="79"/>
-      <c r="DK14" s="82"/>
-      <c r="DL14" s="82"/>
-      <c r="DM14" s="82"/>
-      <c r="DN14" s="82"/>
-      <c r="DO14" s="82"/>
-      <c r="DP14" s="82"/>
-      <c r="DQ14" s="82"/>
-      <c r="DR14" s="86"/>
-      <c r="DS14" s="86"/>
-      <c r="DT14" s="86"/>
-      <c r="DU14" s="86"/>
-      <c r="DV14" s="86"/>
-      <c r="DW14" s="86"/>
-      <c r="DX14" s="86"/>
+      <c r="DI14" s="76"/>
+      <c r="DJ14" s="72"/>
+      <c r="DK14" s="75"/>
+      <c r="DL14" s="75"/>
+      <c r="DM14" s="75"/>
+      <c r="DN14" s="75"/>
+      <c r="DO14" s="75"/>
+      <c r="DP14" s="75"/>
+      <c r="DQ14" s="75"/>
+      <c r="DR14" s="79"/>
+      <c r="DS14" s="79"/>
+      <c r="DT14" s="79"/>
+      <c r="DU14" s="79"/>
+      <c r="DV14" s="79"/>
+      <c r="DW14" s="79"/>
+      <c r="DX14" s="79"/>
       <c r="DY14" s="42"/>
       <c r="DZ14" s="42"/>
       <c r="EA14" s="42"/>
@@ -12399,34 +12358,35 @@
       <c r="IR14" s="42"/>
     </row>
     <row r="15" spans="1:252" s="58" customFormat="1" ht="16">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="116" t="s">
         <v>1662</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D15" s="69">
+      <c r="B15" s="116" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C15" s="130"/>
+      <c r="D15" s="115">
         <v>199</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
-      <c r="L15" s="87"/>
+      <c r="L15" s="80"/>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
-      <c r="P15" s="87" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q15" s="87" t="s">
+      <c r="P15" s="80" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Q15" s="80" t="s">
         <v>891</v>
       </c>
-      <c r="R15" s="87" t="s">
-        <v>1805</v>
+      <c r="R15" s="80" t="s">
+        <v>1754</v>
       </c>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
@@ -12437,107 +12397,107 @@
       <c r="Y15" s="61"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="42"/>
-      <c r="AB15" s="77"/>
+      <c r="AB15" s="70"/>
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
       <c r="AH15" s="42"/>
-      <c r="AI15" s="79"/>
+      <c r="AI15" s="72"/>
       <c r="AJ15" s="42"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="79"/>
+      <c r="AK15" s="73"/>
+      <c r="AL15" s="72"/>
+      <c r="AM15" s="72"/>
       <c r="AN15" s="42"/>
-      <c r="AO15" s="81"/>
-      <c r="AP15" s="79"/>
-      <c r="AQ15" s="79"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
       <c r="AR15" s="42"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="79"/>
-      <c r="AU15" s="83"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="76"/>
       <c r="AV15" s="42"/>
-      <c r="AW15" s="83"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="83"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="76"/>
       <c r="AZ15" s="42"/>
-      <c r="BA15" s="83"/>
-      <c r="BB15" s="79"/>
-      <c r="BC15" s="83"/>
+      <c r="BA15" s="76"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="76"/>
       <c r="BD15" s="42"/>
-      <c r="BE15" s="83"/>
-      <c r="BF15" s="79"/>
-      <c r="BG15" s="83"/>
+      <c r="BE15" s="76"/>
+      <c r="BF15" s="72"/>
+      <c r="BG15" s="76"/>
       <c r="BH15" s="42"/>
-      <c r="BI15" s="83"/>
-      <c r="BJ15" s="79"/>
-      <c r="BK15" s="83"/>
+      <c r="BI15" s="76"/>
+      <c r="BJ15" s="72"/>
+      <c r="BK15" s="76"/>
       <c r="BL15" s="42"/>
-      <c r="BM15" s="84"/>
-      <c r="BN15" s="79"/>
-      <c r="BO15" s="83"/>
+      <c r="BM15" s="77"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="76"/>
       <c r="BP15" s="42"/>
-      <c r="BQ15" s="85"/>
-      <c r="BR15" s="79"/>
-      <c r="BS15" s="83"/>
+      <c r="BQ15" s="78"/>
+      <c r="BR15" s="72"/>
+      <c r="BS15" s="76"/>
       <c r="BT15" s="42"/>
-      <c r="BU15" s="83"/>
-      <c r="BV15" s="79"/>
-      <c r="BW15" s="83"/>
+      <c r="BU15" s="76"/>
+      <c r="BV15" s="72"/>
+      <c r="BW15" s="76"/>
       <c r="BX15" s="42"/>
-      <c r="BY15" s="84"/>
-      <c r="BZ15" s="79"/>
-      <c r="CA15" s="83"/>
+      <c r="BY15" s="77"/>
+      <c r="BZ15" s="72"/>
+      <c r="CA15" s="76"/>
       <c r="CB15" s="42"/>
-      <c r="CC15" s="83"/>
-      <c r="CD15" s="79"/>
-      <c r="CE15" s="83"/>
+      <c r="CC15" s="76"/>
+      <c r="CD15" s="72"/>
+      <c r="CE15" s="76"/>
       <c r="CF15" s="42"/>
-      <c r="CG15" s="83"/>
-      <c r="CH15" s="79"/>
-      <c r="CI15" s="83"/>
+      <c r="CG15" s="76"/>
+      <c r="CH15" s="72"/>
+      <c r="CI15" s="76"/>
       <c r="CJ15" s="42"/>
-      <c r="CK15" s="83"/>
-      <c r="CL15" s="79"/>
-      <c r="CM15" s="83"/>
+      <c r="CK15" s="76"/>
+      <c r="CL15" s="72"/>
+      <c r="CM15" s="76"/>
       <c r="CN15" s="42"/>
-      <c r="CO15" s="83"/>
-      <c r="CP15" s="79"/>
-      <c r="CQ15" s="83"/>
+      <c r="CO15" s="76"/>
+      <c r="CP15" s="72"/>
+      <c r="CQ15" s="76"/>
       <c r="CR15" s="42"/>
-      <c r="CS15" s="83"/>
-      <c r="CT15" s="79"/>
-      <c r="CU15" s="83"/>
+      <c r="CS15" s="76"/>
+      <c r="CT15" s="72"/>
+      <c r="CU15" s="76"/>
       <c r="CV15" s="42"/>
-      <c r="CW15" s="83"/>
-      <c r="CX15" s="79"/>
-      <c r="CY15" s="83"/>
+      <c r="CW15" s="76"/>
+      <c r="CX15" s="72"/>
+      <c r="CY15" s="76"/>
       <c r="CZ15" s="42"/>
-      <c r="DA15" s="83"/>
-      <c r="DB15" s="79"/>
-      <c r="DC15" s="83"/>
+      <c r="DA15" s="76"/>
+      <c r="DB15" s="72"/>
+      <c r="DC15" s="76"/>
       <c r="DD15" s="42"/>
-      <c r="DE15" s="83"/>
-      <c r="DF15" s="79"/>
-      <c r="DG15" s="83"/>
+      <c r="DE15" s="76"/>
+      <c r="DF15" s="72"/>
+      <c r="DG15" s="76"/>
       <c r="DH15" s="42"/>
-      <c r="DI15" s="83"/>
-      <c r="DJ15" s="79"/>
-      <c r="DK15" s="82"/>
-      <c r="DL15" s="82"/>
-      <c r="DM15" s="82"/>
-      <c r="DN15" s="82"/>
-      <c r="DO15" s="82"/>
-      <c r="DP15" s="82"/>
-      <c r="DQ15" s="82"/>
-      <c r="DR15" s="86"/>
-      <c r="DS15" s="86"/>
-      <c r="DT15" s="86"/>
-      <c r="DU15" s="86"/>
-      <c r="DV15" s="86"/>
-      <c r="DW15" s="86"/>
-      <c r="DX15" s="86"/>
+      <c r="DI15" s="76"/>
+      <c r="DJ15" s="72"/>
+      <c r="DK15" s="75"/>
+      <c r="DL15" s="75"/>
+      <c r="DM15" s="75"/>
+      <c r="DN15" s="75"/>
+      <c r="DO15" s="75"/>
+      <c r="DP15" s="75"/>
+      <c r="DQ15" s="75"/>
+      <c r="DR15" s="79"/>
+      <c r="DS15" s="79"/>
+      <c r="DT15" s="79"/>
+      <c r="DU15" s="79"/>
+      <c r="DV15" s="79"/>
+      <c r="DW15" s="79"/>
+      <c r="DX15" s="79"/>
       <c r="DY15" s="42"/>
       <c r="DZ15" s="42"/>
       <c r="EA15" s="42"/>
@@ -12664,23 +12624,24 @@
       <c r="IR15" s="42"/>
     </row>
     <row r="16" spans="1:252" s="58" customFormat="1" ht="16">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D16" s="69">
+      <c r="B16" s="117" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C16" s="130"/>
+      <c r="D16" s="115">
         <v>329</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="87"/>
+      <c r="L16" s="80"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
@@ -12691,7 +12652,7 @@
         <v>888</v>
       </c>
       <c r="R16" s="42" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
@@ -12702,107 +12663,107 @@
       <c r="Y16" s="61"/>
       <c r="Z16" s="61"/>
       <c r="AA16" s="42"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="70"/>
       <c r="AH16" s="42"/>
-      <c r="AI16" s="79"/>
+      <c r="AI16" s="72"/>
       <c r="AJ16" s="42"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="79"/>
-      <c r="AM16" s="79"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
       <c r="AN16" s="42"/>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="79"/>
-      <c r="AQ16" s="79"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
       <c r="AR16" s="42"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="79"/>
-      <c r="AU16" s="83"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="76"/>
       <c r="AV16" s="42"/>
-      <c r="AW16" s="83"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="83"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="76"/>
       <c r="AZ16" s="42"/>
-      <c r="BA16" s="83"/>
-      <c r="BB16" s="79"/>
-      <c r="BC16" s="83"/>
+      <c r="BA16" s="76"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="76"/>
       <c r="BD16" s="42"/>
-      <c r="BE16" s="83"/>
-      <c r="BF16" s="79"/>
-      <c r="BG16" s="83"/>
+      <c r="BE16" s="76"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="76"/>
       <c r="BH16" s="42"/>
-      <c r="BI16" s="83"/>
-      <c r="BJ16" s="79"/>
-      <c r="BK16" s="83"/>
+      <c r="BI16" s="76"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="76"/>
       <c r="BL16" s="42"/>
-      <c r="BM16" s="84"/>
-      <c r="BN16" s="79"/>
-      <c r="BO16" s="83"/>
+      <c r="BM16" s="77"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="76"/>
       <c r="BP16" s="42"/>
-      <c r="BQ16" s="85"/>
-      <c r="BR16" s="79"/>
-      <c r="BS16" s="83"/>
+      <c r="BQ16" s="78"/>
+      <c r="BR16" s="72"/>
+      <c r="BS16" s="76"/>
       <c r="BT16" s="42"/>
-      <c r="BU16" s="83"/>
-      <c r="BV16" s="79"/>
-      <c r="BW16" s="83"/>
+      <c r="BU16" s="76"/>
+      <c r="BV16" s="72"/>
+      <c r="BW16" s="76"/>
       <c r="BX16" s="42"/>
-      <c r="BY16" s="84"/>
-      <c r="BZ16" s="79"/>
-      <c r="CA16" s="83"/>
+      <c r="BY16" s="77"/>
+      <c r="BZ16" s="72"/>
+      <c r="CA16" s="76"/>
       <c r="CB16" s="42"/>
-      <c r="CC16" s="83"/>
-      <c r="CD16" s="79"/>
-      <c r="CE16" s="83"/>
+      <c r="CC16" s="76"/>
+      <c r="CD16" s="72"/>
+      <c r="CE16" s="76"/>
       <c r="CF16" s="42"/>
-      <c r="CG16" s="83"/>
-      <c r="CH16" s="79"/>
-      <c r="CI16" s="83"/>
+      <c r="CG16" s="76"/>
+      <c r="CH16" s="72"/>
+      <c r="CI16" s="76"/>
       <c r="CJ16" s="42"/>
-      <c r="CK16" s="83"/>
-      <c r="CL16" s="79"/>
-      <c r="CM16" s="83"/>
+      <c r="CK16" s="76"/>
+      <c r="CL16" s="72"/>
+      <c r="CM16" s="76"/>
       <c r="CN16" s="42"/>
-      <c r="CO16" s="83"/>
-      <c r="CP16" s="79"/>
-      <c r="CQ16" s="83"/>
+      <c r="CO16" s="76"/>
+      <c r="CP16" s="72"/>
+      <c r="CQ16" s="76"/>
       <c r="CR16" s="42"/>
-      <c r="CS16" s="83"/>
-      <c r="CT16" s="79"/>
-      <c r="CU16" s="83"/>
+      <c r="CS16" s="76"/>
+      <c r="CT16" s="72"/>
+      <c r="CU16" s="76"/>
       <c r="CV16" s="42"/>
-      <c r="CW16" s="83"/>
-      <c r="CX16" s="79"/>
-      <c r="CY16" s="83"/>
+      <c r="CW16" s="76"/>
+      <c r="CX16" s="72"/>
+      <c r="CY16" s="76"/>
       <c r="CZ16" s="42"/>
-      <c r="DA16" s="83"/>
-      <c r="DB16" s="79"/>
-      <c r="DC16" s="83"/>
+      <c r="DA16" s="76"/>
+      <c r="DB16" s="72"/>
+      <c r="DC16" s="76"/>
       <c r="DD16" s="42"/>
-      <c r="DE16" s="83"/>
-      <c r="DF16" s="79"/>
-      <c r="DG16" s="83"/>
+      <c r="DE16" s="76"/>
+      <c r="DF16" s="72"/>
+      <c r="DG16" s="76"/>
       <c r="DH16" s="42"/>
-      <c r="DI16" s="83"/>
-      <c r="DJ16" s="79"/>
-      <c r="DK16" s="82"/>
-      <c r="DL16" s="82"/>
-      <c r="DM16" s="82"/>
-      <c r="DN16" s="82"/>
-      <c r="DO16" s="82"/>
-      <c r="DP16" s="82"/>
-      <c r="DQ16" s="82"/>
-      <c r="DR16" s="82"/>
-      <c r="DS16" s="82"/>
-      <c r="DT16" s="82"/>
-      <c r="DU16" s="82"/>
-      <c r="DV16" s="82"/>
-      <c r="DW16" s="82"/>
-      <c r="DX16" s="82"/>
+      <c r="DI16" s="76"/>
+      <c r="DJ16" s="72"/>
+      <c r="DK16" s="75"/>
+      <c r="DL16" s="75"/>
+      <c r="DM16" s="75"/>
+      <c r="DN16" s="75"/>
+      <c r="DO16" s="75"/>
+      <c r="DP16" s="75"/>
+      <c r="DQ16" s="75"/>
+      <c r="DR16" s="75"/>
+      <c r="DS16" s="75"/>
+      <c r="DT16" s="75"/>
+      <c r="DU16" s="75"/>
+      <c r="DV16" s="75"/>
+      <c r="DW16" s="75"/>
+      <c r="DX16" s="75"/>
       <c r="DY16" s="42"/>
       <c r="DZ16" s="42"/>
       <c r="EA16" s="42"/>
@@ -12929,23 +12890,24 @@
       <c r="IR16" s="42"/>
     </row>
     <row r="17" spans="1:252" s="58" customFormat="1" ht="16">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D17" s="69">
+      <c r="B17" s="117" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="115">
         <v>269</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="87"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
@@ -12953,123 +12915,123 @@
         <v>100</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="R17" s="42" t="s">
         <v>1592</v>
       </c>
       <c r="S17" s="42" t="s">
-        <v>1804</v>
+        <v>1753</v>
       </c>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="88"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="62"/>
-      <c r="Y17" s="89"/>
+      <c r="Y17" s="82"/>
       <c r="Z17" s="62"/>
       <c r="AA17" s="42"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
       <c r="AH17" s="42"/>
-      <c r="AI17" s="79"/>
+      <c r="AI17" s="72"/>
       <c r="AJ17" s="42"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="79"/>
-      <c r="AM17" s="79"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
       <c r="AN17" s="42"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="79"/>
-      <c r="AQ17" s="79"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
       <c r="AR17" s="42"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="79"/>
-      <c r="AU17" s="83"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="76"/>
       <c r="AV17" s="42"/>
-      <c r="AW17" s="83"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="83"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="76"/>
       <c r="AZ17" s="42"/>
-      <c r="BA17" s="83"/>
-      <c r="BB17" s="79"/>
-      <c r="BC17" s="83"/>
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="76"/>
       <c r="BD17" s="42"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="79"/>
-      <c r="BG17" s="83"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="72"/>
+      <c r="BG17" s="76"/>
       <c r="BH17" s="42"/>
-      <c r="BI17" s="83"/>
-      <c r="BJ17" s="79"/>
-      <c r="BK17" s="83"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="72"/>
+      <c r="BK17" s="76"/>
       <c r="BL17" s="42"/>
-      <c r="BM17" s="84"/>
-      <c r="BN17" s="79"/>
-      <c r="BO17" s="83"/>
+      <c r="BM17" s="77"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="76"/>
       <c r="BP17" s="42"/>
-      <c r="BQ17" s="85"/>
-      <c r="BR17" s="79"/>
-      <c r="BS17" s="83"/>
+      <c r="BQ17" s="78"/>
+      <c r="BR17" s="72"/>
+      <c r="BS17" s="76"/>
       <c r="BT17" s="42"/>
-      <c r="BU17" s="83"/>
-      <c r="BV17" s="79"/>
-      <c r="BW17" s="83"/>
+      <c r="BU17" s="76"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="76"/>
       <c r="BX17" s="42"/>
-      <c r="BY17" s="84"/>
-      <c r="BZ17" s="79"/>
-      <c r="CA17" s="83"/>
+      <c r="BY17" s="77"/>
+      <c r="BZ17" s="72"/>
+      <c r="CA17" s="76"/>
       <c r="CB17" s="42"/>
-      <c r="CC17" s="83"/>
-      <c r="CD17" s="79"/>
-      <c r="CE17" s="83"/>
+      <c r="CC17" s="76"/>
+      <c r="CD17" s="72"/>
+      <c r="CE17" s="76"/>
       <c r="CF17" s="42"/>
-      <c r="CG17" s="83"/>
-      <c r="CH17" s="79"/>
-      <c r="CI17" s="83"/>
+      <c r="CG17" s="76"/>
+      <c r="CH17" s="72"/>
+      <c r="CI17" s="76"/>
       <c r="CJ17" s="42"/>
-      <c r="CK17" s="83"/>
-      <c r="CL17" s="79"/>
-      <c r="CM17" s="83"/>
+      <c r="CK17" s="76"/>
+      <c r="CL17" s="72"/>
+      <c r="CM17" s="76"/>
       <c r="CN17" s="42"/>
-      <c r="CO17" s="83"/>
-      <c r="CP17" s="79"/>
-      <c r="CQ17" s="83"/>
+      <c r="CO17" s="76"/>
+      <c r="CP17" s="72"/>
+      <c r="CQ17" s="76"/>
       <c r="CR17" s="42"/>
-      <c r="CS17" s="83"/>
-      <c r="CT17" s="79"/>
-      <c r="CU17" s="83"/>
+      <c r="CS17" s="76"/>
+      <c r="CT17" s="72"/>
+      <c r="CU17" s="76"/>
       <c r="CV17" s="42"/>
-      <c r="CW17" s="83"/>
-      <c r="CX17" s="79"/>
-      <c r="CY17" s="83"/>
+      <c r="CW17" s="76"/>
+      <c r="CX17" s="72"/>
+      <c r="CY17" s="76"/>
       <c r="CZ17" s="42"/>
-      <c r="DA17" s="83"/>
-      <c r="DB17" s="79"/>
-      <c r="DC17" s="83"/>
+      <c r="DA17" s="76"/>
+      <c r="DB17" s="72"/>
+      <c r="DC17" s="76"/>
       <c r="DD17" s="42"/>
-      <c r="DE17" s="83"/>
-      <c r="DF17" s="79"/>
-      <c r="DG17" s="83"/>
+      <c r="DE17" s="76"/>
+      <c r="DF17" s="72"/>
+      <c r="DG17" s="76"/>
       <c r="DH17" s="42"/>
-      <c r="DI17" s="83"/>
-      <c r="DJ17" s="79"/>
-      <c r="DK17" s="82"/>
-      <c r="DL17" s="82"/>
-      <c r="DM17" s="82"/>
-      <c r="DN17" s="82"/>
-      <c r="DO17" s="82"/>
-      <c r="DP17" s="82"/>
-      <c r="DQ17" s="82"/>
-      <c r="DR17" s="82"/>
-      <c r="DS17" s="82"/>
-      <c r="DT17" s="82"/>
-      <c r="DU17" s="82"/>
-      <c r="DV17" s="82"/>
-      <c r="DW17" s="82"/>
-      <c r="DX17" s="82"/>
+      <c r="DI17" s="76"/>
+      <c r="DJ17" s="72"/>
+      <c r="DK17" s="75"/>
+      <c r="DL17" s="75"/>
+      <c r="DM17" s="75"/>
+      <c r="DN17" s="75"/>
+      <c r="DO17" s="75"/>
+      <c r="DP17" s="75"/>
+      <c r="DQ17" s="75"/>
+      <c r="DR17" s="75"/>
+      <c r="DS17" s="75"/>
+      <c r="DT17" s="75"/>
+      <c r="DU17" s="75"/>
+      <c r="DV17" s="75"/>
+      <c r="DW17" s="75"/>
+      <c r="DX17" s="75"/>
       <c r="DY17" s="42"/>
       <c r="DZ17" s="42"/>
       <c r="EA17" s="42"/>
@@ -13196,13 +13158,14 @@
       <c r="IR17" s="42"/>
     </row>
     <row r="18" spans="1:252" ht="16">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D18" s="69">
+      <c r="B18" s="116" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="115">
         <v>229</v>
       </c>
       <c r="E18" s="59"/>
@@ -13212,129 +13175,129 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="87"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
-      <c r="P18" s="87" t="s">
+      <c r="P18" s="80" t="s">
         <v>893</v>
       </c>
-      <c r="Q18" s="87" t="s">
-        <v>1807</v>
+      <c r="Q18" s="80" t="s">
+        <v>1756</v>
       </c>
       <c r="R18" s="42" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
-      <c r="V18" s="87"/>
+      <c r="V18" s="80"/>
       <c r="W18" s="42"/>
-      <c r="X18" s="87"/>
+      <c r="X18" s="80"/>
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
       <c r="AG18" s="43"/>
       <c r="AH18" s="42"/>
-      <c r="AI18" s="79"/>
+      <c r="AI18" s="72"/>
       <c r="AJ18" s="42"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="79"/>
-      <c r="AM18" s="79"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
       <c r="AN18" s="42"/>
-      <c r="AO18" s="81"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
       <c r="AR18" s="42"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="83"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="76"/>
       <c r="AV18" s="42"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="83"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="76"/>
       <c r="AZ18" s="42"/>
-      <c r="BA18" s="83"/>
-      <c r="BB18" s="79"/>
-      <c r="BC18" s="83"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="76"/>
       <c r="BD18" s="42"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="79"/>
-      <c r="BG18" s="83"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="76"/>
       <c r="BH18" s="42"/>
-      <c r="BI18" s="83"/>
-      <c r="BJ18" s="79"/>
-      <c r="BK18" s="83"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="72"/>
+      <c r="BK18" s="76"/>
       <c r="BL18" s="42"/>
-      <c r="BM18" s="84"/>
-      <c r="BN18" s="79"/>
-      <c r="BO18" s="83"/>
+      <c r="BM18" s="77"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="76"/>
       <c r="BP18" s="42"/>
-      <c r="BQ18" s="85"/>
-      <c r="BR18" s="79"/>
-      <c r="BS18" s="83"/>
+      <c r="BQ18" s="78"/>
+      <c r="BR18" s="72"/>
+      <c r="BS18" s="76"/>
       <c r="BT18" s="42"/>
-      <c r="BU18" s="83"/>
-      <c r="BV18" s="79"/>
-      <c r="BW18" s="83"/>
+      <c r="BU18" s="76"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="76"/>
       <c r="BX18" s="42"/>
-      <c r="BY18" s="84"/>
-      <c r="BZ18" s="79"/>
-      <c r="CA18" s="83"/>
+      <c r="BY18" s="77"/>
+      <c r="BZ18" s="72"/>
+      <c r="CA18" s="76"/>
       <c r="CB18" s="42"/>
-      <c r="CC18" s="83"/>
-      <c r="CD18" s="79"/>
-      <c r="CE18" s="83"/>
+      <c r="CC18" s="76"/>
+      <c r="CD18" s="72"/>
+      <c r="CE18" s="76"/>
       <c r="CF18" s="42"/>
-      <c r="CG18" s="83"/>
-      <c r="CH18" s="79"/>
-      <c r="CI18" s="83"/>
+      <c r="CG18" s="76"/>
+      <c r="CH18" s="72"/>
+      <c r="CI18" s="76"/>
       <c r="CJ18" s="42"/>
-      <c r="CK18" s="83"/>
-      <c r="CL18" s="79"/>
-      <c r="CM18" s="83"/>
+      <c r="CK18" s="76"/>
+      <c r="CL18" s="72"/>
+      <c r="CM18" s="76"/>
       <c r="CN18" s="42"/>
-      <c r="CO18" s="83"/>
-      <c r="CP18" s="79"/>
-      <c r="CQ18" s="83"/>
+      <c r="CO18" s="76"/>
+      <c r="CP18" s="72"/>
+      <c r="CQ18" s="76"/>
       <c r="CR18" s="42"/>
-      <c r="CS18" s="83"/>
-      <c r="CT18" s="79"/>
-      <c r="CU18" s="83"/>
+      <c r="CS18" s="76"/>
+      <c r="CT18" s="72"/>
+      <c r="CU18" s="76"/>
       <c r="CV18" s="42"/>
-      <c r="CW18" s="83"/>
-      <c r="CX18" s="79"/>
-      <c r="CY18" s="83"/>
+      <c r="CW18" s="76"/>
+      <c r="CX18" s="72"/>
+      <c r="CY18" s="76"/>
       <c r="CZ18" s="42"/>
-      <c r="DA18" s="83"/>
-      <c r="DB18" s="79"/>
-      <c r="DC18" s="83"/>
+      <c r="DA18" s="76"/>
+      <c r="DB18" s="72"/>
+      <c r="DC18" s="76"/>
       <c r="DD18" s="42"/>
-      <c r="DE18" s="83"/>
-      <c r="DF18" s="79"/>
-      <c r="DG18" s="83"/>
+      <c r="DE18" s="76"/>
+      <c r="DF18" s="72"/>
+      <c r="DG18" s="76"/>
       <c r="DH18" s="42"/>
-      <c r="DI18" s="83"/>
-      <c r="DJ18" s="79"/>
-      <c r="DK18" s="82"/>
-      <c r="DL18" s="82"/>
-      <c r="DM18" s="82"/>
-      <c r="DN18" s="82"/>
-      <c r="DO18" s="82"/>
-      <c r="DP18" s="82"/>
-      <c r="DQ18" s="82"/>
-      <c r="DR18" s="82"/>
-      <c r="DS18" s="82"/>
-      <c r="DT18" s="82"/>
-      <c r="DU18" s="82"/>
-      <c r="DV18" s="82"/>
-      <c r="DW18" s="82"/>
-      <c r="DX18" s="82"/>
+      <c r="DI18" s="76"/>
+      <c r="DJ18" s="72"/>
+      <c r="DK18" s="75"/>
+      <c r="DL18" s="75"/>
+      <c r="DM18" s="75"/>
+      <c r="DN18" s="75"/>
+      <c r="DO18" s="75"/>
+      <c r="DP18" s="75"/>
+      <c r="DQ18" s="75"/>
+      <c r="DR18" s="75"/>
+      <c r="DS18" s="75"/>
+      <c r="DT18" s="75"/>
+      <c r="DU18" s="75"/>
+      <c r="DV18" s="75"/>
+      <c r="DW18" s="75"/>
+      <c r="DX18" s="75"/>
       <c r="DY18" s="42"/>
       <c r="DZ18" s="42"/>
       <c r="EA18" s="42"/>
@@ -13461,23 +13424,24 @@
       <c r="IR18" s="42"/>
     </row>
     <row r="19" spans="1:252" ht="31">
-      <c r="A19" s="66" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D19" s="69">
+      <c r="A19" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="115">
         <v>279</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="87"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -13485,13 +13449,13 @@
         <v>100</v>
       </c>
       <c r="Q19" s="42" t="s">
-        <v>1808</v>
+        <v>1757</v>
       </c>
       <c r="R19" s="42" t="s">
         <v>890</v>
       </c>
-      <c r="S19" s="87" t="s">
-        <v>1809</v>
+      <c r="S19" s="80" t="s">
+        <v>1758</v>
       </c>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
@@ -13501,100 +13465,100 @@
       <c r="Y19" s="63"/>
       <c r="Z19" s="62"/>
       <c r="AA19" s="42"/>
-      <c r="AB19" s="77"/>
-      <c r="AC19" s="87"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="80"/>
       <c r="AD19" s="42"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="87"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="80"/>
       <c r="AH19" s="42"/>
-      <c r="AI19" s="79"/>
+      <c r="AI19" s="72"/>
       <c r="AJ19" s="42"/>
-      <c r="AK19" s="80"/>
-      <c r="AL19" s="79"/>
-      <c r="AM19" s="79"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
       <c r="AN19" s="42"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="79"/>
-      <c r="AQ19" s="79"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
       <c r="AR19" s="42"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="79"/>
-      <c r="AU19" s="83"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="76"/>
       <c r="AV19" s="42"/>
-      <c r="AW19" s="83"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="83"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="76"/>
       <c r="AZ19" s="42"/>
-      <c r="BA19" s="83"/>
-      <c r="BB19" s="79"/>
-      <c r="BC19" s="83"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="72"/>
+      <c r="BC19" s="76"/>
       <c r="BD19" s="42"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="79"/>
-      <c r="BG19" s="83"/>
+      <c r="BE19" s="76"/>
+      <c r="BF19" s="72"/>
+      <c r="BG19" s="76"/>
       <c r="BH19" s="42"/>
-      <c r="BI19" s="83"/>
-      <c r="BJ19" s="79"/>
-      <c r="BK19" s="83"/>
+      <c r="BI19" s="76"/>
+      <c r="BJ19" s="72"/>
+      <c r="BK19" s="76"/>
       <c r="BL19" s="42"/>
-      <c r="BM19" s="84"/>
-      <c r="BN19" s="79"/>
-      <c r="BO19" s="83"/>
+      <c r="BM19" s="77"/>
+      <c r="BN19" s="72"/>
+      <c r="BO19" s="76"/>
       <c r="BP19" s="42"/>
-      <c r="BQ19" s="85"/>
-      <c r="BR19" s="79"/>
-      <c r="BS19" s="83"/>
+      <c r="BQ19" s="78"/>
+      <c r="BR19" s="72"/>
+      <c r="BS19" s="76"/>
       <c r="BT19" s="42"/>
-      <c r="BU19" s="83"/>
-      <c r="BV19" s="79"/>
-      <c r="BW19" s="83"/>
+      <c r="BU19" s="76"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="76"/>
       <c r="BX19" s="42"/>
-      <c r="BY19" s="84"/>
-      <c r="BZ19" s="79"/>
-      <c r="CA19" s="83"/>
+      <c r="BY19" s="77"/>
+      <c r="BZ19" s="72"/>
+      <c r="CA19" s="76"/>
       <c r="CB19" s="42"/>
-      <c r="CC19" s="83"/>
-      <c r="CD19" s="79"/>
-      <c r="CE19" s="83"/>
+      <c r="CC19" s="76"/>
+      <c r="CD19" s="72"/>
+      <c r="CE19" s="76"/>
       <c r="CF19" s="42"/>
-      <c r="CG19" s="83"/>
-      <c r="CH19" s="79"/>
-      <c r="CI19" s="83"/>
+      <c r="CG19" s="76"/>
+      <c r="CH19" s="72"/>
+      <c r="CI19" s="76"/>
       <c r="CJ19" s="42"/>
-      <c r="CK19" s="83"/>
-      <c r="CL19" s="79"/>
-      <c r="CM19" s="83"/>
+      <c r="CK19" s="76"/>
+      <c r="CL19" s="72"/>
+      <c r="CM19" s="76"/>
       <c r="CN19" s="42"/>
-      <c r="CO19" s="83"/>
-      <c r="CP19" s="79"/>
-      <c r="CQ19" s="83"/>
+      <c r="CO19" s="76"/>
+      <c r="CP19" s="72"/>
+      <c r="CQ19" s="76"/>
       <c r="CR19" s="42"/>
-      <c r="CS19" s="83"/>
-      <c r="CT19" s="79"/>
-      <c r="CU19" s="83"/>
+      <c r="CS19" s="76"/>
+      <c r="CT19" s="72"/>
+      <c r="CU19" s="76"/>
       <c r="CV19" s="42"/>
-      <c r="CW19" s="83"/>
-      <c r="CX19" s="79"/>
-      <c r="CY19" s="83"/>
+      <c r="CW19" s="76"/>
+      <c r="CX19" s="72"/>
+      <c r="CY19" s="76"/>
       <c r="CZ19" s="42"/>
-      <c r="DA19" s="83"/>
-      <c r="DB19" s="79"/>
-      <c r="DC19" s="83"/>
+      <c r="DA19" s="76"/>
+      <c r="DB19" s="72"/>
+      <c r="DC19" s="76"/>
       <c r="DD19" s="42"/>
-      <c r="DE19" s="83"/>
-      <c r="DF19" s="79"/>
-      <c r="DG19" s="83"/>
+      <c r="DE19" s="76"/>
+      <c r="DF19" s="72"/>
+      <c r="DG19" s="76"/>
       <c r="DH19" s="42"/>
-      <c r="DI19" s="83"/>
-      <c r="DJ19" s="79"/>
-      <c r="DK19" s="82"/>
-      <c r="DL19" s="82"/>
-      <c r="DM19" s="82"/>
-      <c r="DN19" s="82"/>
-      <c r="DO19" s="82"/>
-      <c r="DP19" s="82"/>
-      <c r="DQ19" s="82"/>
+      <c r="DI19" s="76"/>
+      <c r="DJ19" s="72"/>
+      <c r="DK19" s="75"/>
+      <c r="DL19" s="75"/>
+      <c r="DM19" s="75"/>
+      <c r="DN19" s="75"/>
+      <c r="DO19" s="75"/>
+      <c r="DP19" s="75"/>
+      <c r="DQ19" s="75"/>
       <c r="DR19" s="35"/>
       <c r="DS19" s="35"/>
       <c r="DT19" s="35"/>
@@ -13728,23 +13692,24 @@
       <c r="IR19" s="42"/>
     </row>
     <row r="20" spans="1:252" ht="16">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D20" s="69">
+      <c r="B20" s="116" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="115">
         <v>249</v>
       </c>
-      <c r="E20" s="87"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="87"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -13759,114 +13724,114 @@
       </c>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
-      <c r="U20" s="90"/>
+      <c r="U20" s="83"/>
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
-      <c r="Z20" s="87"/>
+      <c r="Z20" s="80"/>
       <c r="AA20" s="42"/>
-      <c r="AB20" s="77"/>
+      <c r="AB20" s="70"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="87"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="70"/>
+      <c r="AG20" s="80"/>
       <c r="AH20" s="42"/>
-      <c r="AI20" s="79"/>
+      <c r="AI20" s="72"/>
       <c r="AJ20" s="42"/>
-      <c r="AK20" s="80"/>
-      <c r="AL20" s="79"/>
-      <c r="AM20" s="79"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
       <c r="AN20" s="42"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="79"/>
-      <c r="AQ20" s="79"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
       <c r="AR20" s="42"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="79"/>
-      <c r="AU20" s="83"/>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="76"/>
       <c r="AV20" s="42"/>
-      <c r="AW20" s="83"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="83"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="76"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="83"/>
-      <c r="BB20" s="79"/>
-      <c r="BC20" s="83"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="76"/>
       <c r="BD20" s="42"/>
-      <c r="BE20" s="83"/>
-      <c r="BF20" s="79"/>
-      <c r="BG20" s="83"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="72"/>
+      <c r="BG20" s="76"/>
       <c r="BH20" s="42"/>
-      <c r="BI20" s="83"/>
-      <c r="BJ20" s="79"/>
-      <c r="BK20" s="83"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="72"/>
+      <c r="BK20" s="76"/>
       <c r="BL20" s="42"/>
-      <c r="BM20" s="84"/>
-      <c r="BN20" s="79"/>
-      <c r="BO20" s="83"/>
+      <c r="BM20" s="77"/>
+      <c r="BN20" s="72"/>
+      <c r="BO20" s="76"/>
       <c r="BP20" s="42"/>
-      <c r="BQ20" s="85"/>
-      <c r="BR20" s="79"/>
-      <c r="BS20" s="83"/>
+      <c r="BQ20" s="78"/>
+      <c r="BR20" s="72"/>
+      <c r="BS20" s="76"/>
       <c r="BT20" s="42"/>
-      <c r="BU20" s="83"/>
-      <c r="BV20" s="79"/>
-      <c r="BW20" s="83"/>
+      <c r="BU20" s="76"/>
+      <c r="BV20" s="72"/>
+      <c r="BW20" s="76"/>
       <c r="BX20" s="42"/>
-      <c r="BY20" s="84"/>
-      <c r="BZ20" s="79"/>
-      <c r="CA20" s="83"/>
+      <c r="BY20" s="77"/>
+      <c r="BZ20" s="72"/>
+      <c r="CA20" s="76"/>
       <c r="CB20" s="42"/>
-      <c r="CC20" s="83"/>
-      <c r="CD20" s="79"/>
-      <c r="CE20" s="83"/>
+      <c r="CC20" s="76"/>
+      <c r="CD20" s="72"/>
+      <c r="CE20" s="76"/>
       <c r="CF20" s="42"/>
-      <c r="CG20" s="83"/>
-      <c r="CH20" s="79"/>
-      <c r="CI20" s="83"/>
+      <c r="CG20" s="76"/>
+      <c r="CH20" s="72"/>
+      <c r="CI20" s="76"/>
       <c r="CJ20" s="42"/>
-      <c r="CK20" s="83"/>
-      <c r="CL20" s="79"/>
-      <c r="CM20" s="83"/>
+      <c r="CK20" s="76"/>
+      <c r="CL20" s="72"/>
+      <c r="CM20" s="76"/>
       <c r="CN20" s="42"/>
-      <c r="CO20" s="83"/>
-      <c r="CP20" s="79"/>
-      <c r="CQ20" s="83"/>
+      <c r="CO20" s="76"/>
+      <c r="CP20" s="72"/>
+      <c r="CQ20" s="76"/>
       <c r="CR20" s="42"/>
-      <c r="CS20" s="83"/>
-      <c r="CT20" s="79"/>
-      <c r="CU20" s="83"/>
+      <c r="CS20" s="76"/>
+      <c r="CT20" s="72"/>
+      <c r="CU20" s="76"/>
       <c r="CV20" s="42"/>
-      <c r="CW20" s="83"/>
-      <c r="CX20" s="79"/>
-      <c r="CY20" s="83"/>
+      <c r="CW20" s="76"/>
+      <c r="CX20" s="72"/>
+      <c r="CY20" s="76"/>
       <c r="CZ20" s="42"/>
-      <c r="DA20" s="83"/>
-      <c r="DB20" s="79"/>
-      <c r="DC20" s="83"/>
+      <c r="DA20" s="76"/>
+      <c r="DB20" s="72"/>
+      <c r="DC20" s="76"/>
       <c r="DD20" s="42"/>
-      <c r="DE20" s="83"/>
-      <c r="DF20" s="79"/>
-      <c r="DG20" s="83"/>
+      <c r="DE20" s="76"/>
+      <c r="DF20" s="72"/>
+      <c r="DG20" s="76"/>
       <c r="DH20" s="42"/>
-      <c r="DI20" s="83"/>
-      <c r="DJ20" s="79"/>
-      <c r="DK20" s="82"/>
-      <c r="DL20" s="82"/>
-      <c r="DM20" s="82"/>
-      <c r="DN20" s="82"/>
-      <c r="DO20" s="82"/>
-      <c r="DP20" s="82"/>
-      <c r="DQ20" s="82"/>
-      <c r="DR20" s="82"/>
-      <c r="DS20" s="82"/>
-      <c r="DT20" s="82"/>
-      <c r="DU20" s="82"/>
-      <c r="DV20" s="82"/>
-      <c r="DW20" s="82"/>
-      <c r="DX20" s="82"/>
+      <c r="DI20" s="76"/>
+      <c r="DJ20" s="72"/>
+      <c r="DK20" s="75"/>
+      <c r="DL20" s="75"/>
+      <c r="DM20" s="75"/>
+      <c r="DN20" s="75"/>
+      <c r="DO20" s="75"/>
+      <c r="DP20" s="75"/>
+      <c r="DQ20" s="75"/>
+      <c r="DR20" s="75"/>
+      <c r="DS20" s="75"/>
+      <c r="DT20" s="75"/>
+      <c r="DU20" s="75"/>
+      <c r="DV20" s="75"/>
+      <c r="DW20" s="75"/>
+      <c r="DX20" s="75"/>
       <c r="DY20" s="42"/>
       <c r="DZ20" s="42"/>
       <c r="EA20" s="42"/>
@@ -13993,23 +13958,24 @@
       <c r="IR20" s="42"/>
     </row>
     <row r="21" spans="1:252" ht="16">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D21" s="69">
+      <c r="B21" s="117" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C21" s="129"/>
+      <c r="D21" s="115">
         <v>259</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
-      <c r="L21" s="87"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
@@ -14023,113 +13989,113 @@
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
       <c r="AA21" s="42"/>
-      <c r="AB21" s="77"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="87"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="80"/>
       <c r="AH21" s="42"/>
-      <c r="AI21" s="79"/>
+      <c r="AI21" s="72"/>
       <c r="AJ21" s="42"/>
-      <c r="AK21" s="80"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
+      <c r="AK21" s="73"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="72"/>
       <c r="AN21" s="42"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
       <c r="AR21" s="42"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="79"/>
-      <c r="AU21" s="83"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="76"/>
       <c r="AV21" s="42"/>
-      <c r="AW21" s="83"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="83"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="76"/>
       <c r="AZ21" s="42"/>
-      <c r="BA21" s="83"/>
-      <c r="BB21" s="79"/>
-      <c r="BC21" s="83"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="72"/>
+      <c r="BC21" s="76"/>
       <c r="BD21" s="42"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="79"/>
-      <c r="BG21" s="83"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="72"/>
+      <c r="BG21" s="76"/>
       <c r="BH21" s="42"/>
-      <c r="BI21" s="83"/>
-      <c r="BJ21" s="79"/>
-      <c r="BK21" s="83"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="72"/>
+      <c r="BK21" s="76"/>
       <c r="BL21" s="42"/>
-      <c r="BM21" s="84"/>
-      <c r="BN21" s="79"/>
-      <c r="BO21" s="83"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="72"/>
+      <c r="BO21" s="76"/>
       <c r="BP21" s="42"/>
-      <c r="BQ21" s="85"/>
-      <c r="BR21" s="79"/>
-      <c r="BS21" s="83"/>
+      <c r="BQ21" s="78"/>
+      <c r="BR21" s="72"/>
+      <c r="BS21" s="76"/>
       <c r="BT21" s="42"/>
-      <c r="BU21" s="83"/>
-      <c r="BV21" s="79"/>
-      <c r="BW21" s="83"/>
+      <c r="BU21" s="76"/>
+      <c r="BV21" s="72"/>
+      <c r="BW21" s="76"/>
       <c r="BX21" s="42"/>
-      <c r="BY21" s="84"/>
-      <c r="BZ21" s="79"/>
-      <c r="CA21" s="83"/>
+      <c r="BY21" s="77"/>
+      <c r="BZ21" s="72"/>
+      <c r="CA21" s="76"/>
       <c r="CB21" s="42"/>
-      <c r="CC21" s="83"/>
-      <c r="CD21" s="79"/>
-      <c r="CE21" s="83"/>
+      <c r="CC21" s="76"/>
+      <c r="CD21" s="72"/>
+      <c r="CE21" s="76"/>
       <c r="CF21" s="42"/>
-      <c r="CG21" s="83"/>
-      <c r="CH21" s="79"/>
-      <c r="CI21" s="83"/>
+      <c r="CG21" s="76"/>
+      <c r="CH21" s="72"/>
+      <c r="CI21" s="76"/>
       <c r="CJ21" s="42"/>
-      <c r="CK21" s="83"/>
-      <c r="CL21" s="79"/>
-      <c r="CM21" s="83"/>
+      <c r="CK21" s="76"/>
+      <c r="CL21" s="72"/>
+      <c r="CM21" s="76"/>
       <c r="CN21" s="42"/>
-      <c r="CO21" s="83"/>
-      <c r="CP21" s="79"/>
-      <c r="CQ21" s="83"/>
+      <c r="CO21" s="76"/>
+      <c r="CP21" s="72"/>
+      <c r="CQ21" s="76"/>
       <c r="CR21" s="42"/>
-      <c r="CS21" s="83"/>
-      <c r="CT21" s="79"/>
-      <c r="CU21" s="83"/>
+      <c r="CS21" s="76"/>
+      <c r="CT21" s="72"/>
+      <c r="CU21" s="76"/>
       <c r="CV21" s="42"/>
-      <c r="CW21" s="83"/>
-      <c r="CX21" s="79"/>
-      <c r="CY21" s="83"/>
+      <c r="CW21" s="76"/>
+      <c r="CX21" s="72"/>
+      <c r="CY21" s="76"/>
       <c r="CZ21" s="42"/>
-      <c r="DA21" s="83"/>
-      <c r="DB21" s="79"/>
-      <c r="DC21" s="83"/>
+      <c r="DA21" s="76"/>
+      <c r="DB21" s="72"/>
+      <c r="DC21" s="76"/>
       <c r="DD21" s="42"/>
-      <c r="DE21" s="83"/>
-      <c r="DF21" s="79"/>
-      <c r="DG21" s="83"/>
+      <c r="DE21" s="76"/>
+      <c r="DF21" s="72"/>
+      <c r="DG21" s="76"/>
       <c r="DH21" s="42"/>
-      <c r="DI21" s="83"/>
-      <c r="DJ21" s="79"/>
-      <c r="DK21" s="82"/>
-      <c r="DL21" s="82"/>
-      <c r="DM21" s="82"/>
-      <c r="DN21" s="82"/>
-      <c r="DO21" s="82"/>
-      <c r="DP21" s="82"/>
-      <c r="DQ21" s="82"/>
-      <c r="DR21" s="82"/>
-      <c r="DS21" s="82"/>
-      <c r="DT21" s="82"/>
-      <c r="DU21" s="82"/>
-      <c r="DV21" s="82"/>
-      <c r="DW21" s="82"/>
-      <c r="DX21" s="82"/>
+      <c r="DI21" s="76"/>
+      <c r="DJ21" s="72"/>
+      <c r="DK21" s="75"/>
+      <c r="DL21" s="75"/>
+      <c r="DM21" s="75"/>
+      <c r="DN21" s="75"/>
+      <c r="DO21" s="75"/>
+      <c r="DP21" s="75"/>
+      <c r="DQ21" s="75"/>
+      <c r="DR21" s="75"/>
+      <c r="DS21" s="75"/>
+      <c r="DT21" s="75"/>
+      <c r="DU21" s="75"/>
+      <c r="DV21" s="75"/>
+      <c r="DW21" s="75"/>
+      <c r="DX21" s="75"/>
       <c r="DY21" s="42"/>
       <c r="DZ21" s="42"/>
       <c r="EA21" s="42"/>
@@ -14256,28 +14222,29 @@
       <c r="IR21" s="42"/>
     </row>
     <row r="22" spans="1:252" ht="16">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D22" s="69">
+      <c r="B22" s="116" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C22" s="129"/>
+      <c r="D22" s="115">
         <v>299</v>
       </c>
-      <c r="E22" s="87"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="87"/>
+      <c r="L22" s="80"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
       <c r="O22" s="42"/>
       <c r="P22" s="42" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="Q22" s="42" t="s">
         <v>885</v>
@@ -14292,93 +14259,93 @@
       <c r="Y22" s="63"/>
       <c r="Z22" s="62"/>
       <c r="AA22" s="42"/>
-      <c r="AB22" s="77"/>
+      <c r="AB22" s="70"/>
       <c r="AC22" s="42"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="87"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="80"/>
       <c r="AH22" s="42"/>
-      <c r="AI22" s="79"/>
+      <c r="AI22" s="72"/>
       <c r="AJ22" s="42"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
       <c r="AN22" s="42"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
       <c r="AR22" s="42"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="79"/>
-      <c r="AU22" s="83"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="76"/>
       <c r="AV22" s="42"/>
-      <c r="AW22" s="83"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="83"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="76"/>
       <c r="AZ22" s="42"/>
-      <c r="BA22" s="83"/>
-      <c r="BB22" s="79"/>
-      <c r="BC22" s="83"/>
+      <c r="BA22" s="76"/>
+      <c r="BB22" s="72"/>
+      <c r="BC22" s="76"/>
       <c r="BD22" s="42"/>
-      <c r="BE22" s="83"/>
-      <c r="BF22" s="79"/>
-      <c r="BG22" s="83"/>
+      <c r="BE22" s="76"/>
+      <c r="BF22" s="72"/>
+      <c r="BG22" s="76"/>
       <c r="BH22" s="42"/>
-      <c r="BI22" s="83"/>
-      <c r="BJ22" s="79"/>
-      <c r="BK22" s="83"/>
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="72"/>
+      <c r="BK22" s="76"/>
       <c r="BL22" s="42"/>
-      <c r="BM22" s="84"/>
-      <c r="BN22" s="79"/>
-      <c r="BO22" s="83"/>
+      <c r="BM22" s="77"/>
+      <c r="BN22" s="72"/>
+      <c r="BO22" s="76"/>
       <c r="BP22" s="42"/>
-      <c r="BQ22" s="85"/>
-      <c r="BR22" s="79"/>
-      <c r="BS22" s="83"/>
+      <c r="BQ22" s="78"/>
+      <c r="BR22" s="72"/>
+      <c r="BS22" s="76"/>
       <c r="BT22" s="42"/>
-      <c r="BU22" s="83"/>
-      <c r="BV22" s="79"/>
-      <c r="BW22" s="83"/>
+      <c r="BU22" s="76"/>
+      <c r="BV22" s="72"/>
+      <c r="BW22" s="76"/>
       <c r="BX22" s="42"/>
-      <c r="BY22" s="84"/>
-      <c r="BZ22" s="79"/>
-      <c r="CA22" s="83"/>
+      <c r="BY22" s="77"/>
+      <c r="BZ22" s="72"/>
+      <c r="CA22" s="76"/>
       <c r="CB22" s="42"/>
-      <c r="CC22" s="83"/>
-      <c r="CD22" s="79"/>
-      <c r="CE22" s="83"/>
+      <c r="CC22" s="76"/>
+      <c r="CD22" s="72"/>
+      <c r="CE22" s="76"/>
       <c r="CF22" s="42"/>
-      <c r="CG22" s="83"/>
-      <c r="CH22" s="79"/>
-      <c r="CI22" s="83"/>
+      <c r="CG22" s="76"/>
+      <c r="CH22" s="72"/>
+      <c r="CI22" s="76"/>
       <c r="CJ22" s="42"/>
-      <c r="CK22" s="83"/>
-      <c r="CL22" s="79"/>
-      <c r="CM22" s="83"/>
+      <c r="CK22" s="76"/>
+      <c r="CL22" s="72"/>
+      <c r="CM22" s="76"/>
       <c r="CN22" s="42"/>
-      <c r="CO22" s="83"/>
-      <c r="CP22" s="79"/>
-      <c r="CQ22" s="83"/>
+      <c r="CO22" s="76"/>
+      <c r="CP22" s="72"/>
+      <c r="CQ22" s="76"/>
       <c r="CR22" s="42"/>
-      <c r="CS22" s="83"/>
-      <c r="CT22" s="79"/>
-      <c r="CU22" s="83"/>
+      <c r="CS22" s="76"/>
+      <c r="CT22" s="72"/>
+      <c r="CU22" s="76"/>
       <c r="CV22" s="42"/>
-      <c r="CW22" s="83"/>
-      <c r="CX22" s="79"/>
-      <c r="CY22" s="83"/>
+      <c r="CW22" s="76"/>
+      <c r="CX22" s="72"/>
+      <c r="CY22" s="76"/>
       <c r="CZ22" s="42"/>
-      <c r="DA22" s="83"/>
-      <c r="DB22" s="79"/>
-      <c r="DC22" s="83"/>
+      <c r="DA22" s="76"/>
+      <c r="DB22" s="72"/>
+      <c r="DC22" s="76"/>
       <c r="DD22" s="42"/>
-      <c r="DE22" s="83"/>
-      <c r="DF22" s="79"/>
-      <c r="DG22" s="83"/>
+      <c r="DE22" s="76"/>
+      <c r="DF22" s="72"/>
+      <c r="DG22" s="76"/>
       <c r="DH22" s="42"/>
-      <c r="DI22" s="83"/>
-      <c r="DJ22" s="79"/>
+      <c r="DI22" s="76"/>
+      <c r="DJ22" s="72"/>
       <c r="DK22" s="22"/>
       <c r="DL22" s="22"/>
       <c r="DM22" s="22"/>
@@ -14519,23 +14486,24 @@
       <c r="IR22" s="42"/>
     </row>
     <row r="23" spans="1:252" ht="16">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="66" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D23" s="69">
+      <c r="B23" s="116" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C23" s="129"/>
+      <c r="D23" s="115">
         <v>189</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
-      <c r="L23" s="87"/>
+      <c r="L23" s="80"/>
       <c r="M23" s="42"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
@@ -14553,93 +14521,93 @@
       <c r="Y23" s="63"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="42"/>
-      <c r="AB23" s="77"/>
+      <c r="AB23" s="70"/>
       <c r="AC23" s="42"/>
       <c r="AD23" s="42"/>
-      <c r="AE23" s="77"/>
+      <c r="AE23" s="70"/>
       <c r="AF23" s="60"/>
-      <c r="AG23" s="87"/>
+      <c r="AG23" s="80"/>
       <c r="AH23" s="42"/>
-      <c r="AI23" s="79"/>
+      <c r="AI23" s="72"/>
       <c r="AJ23" s="42"/>
-      <c r="AK23" s="80"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
+      <c r="AK23" s="73"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="72"/>
       <c r="AN23" s="42"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
       <c r="AR23" s="42"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="79"/>
-      <c r="AU23" s="83"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="76"/>
       <c r="AV23" s="42"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="83"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="76"/>
       <c r="AZ23" s="42"/>
-      <c r="BA23" s="83"/>
-      <c r="BB23" s="79"/>
-      <c r="BC23" s="83"/>
+      <c r="BA23" s="76"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="76"/>
       <c r="BD23" s="42"/>
-      <c r="BE23" s="83"/>
-      <c r="BF23" s="79"/>
-      <c r="BG23" s="83"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="72"/>
+      <c r="BG23" s="76"/>
       <c r="BH23" s="42"/>
-      <c r="BI23" s="83"/>
-      <c r="BJ23" s="79"/>
-      <c r="BK23" s="83"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="72"/>
+      <c r="BK23" s="76"/>
       <c r="BL23" s="42"/>
-      <c r="BM23" s="84"/>
-      <c r="BN23" s="79"/>
-      <c r="BO23" s="83"/>
+      <c r="BM23" s="77"/>
+      <c r="BN23" s="72"/>
+      <c r="BO23" s="76"/>
       <c r="BP23" s="42"/>
-      <c r="BQ23" s="85"/>
-      <c r="BR23" s="79"/>
-      <c r="BS23" s="83"/>
+      <c r="BQ23" s="78"/>
+      <c r="BR23" s="72"/>
+      <c r="BS23" s="76"/>
       <c r="BT23" s="42"/>
-      <c r="BU23" s="83"/>
-      <c r="BV23" s="79"/>
-      <c r="BW23" s="83"/>
+      <c r="BU23" s="76"/>
+      <c r="BV23" s="72"/>
+      <c r="BW23" s="76"/>
       <c r="BX23" s="42"/>
-      <c r="BY23" s="84"/>
-      <c r="BZ23" s="79"/>
-      <c r="CA23" s="83"/>
+      <c r="BY23" s="77"/>
+      <c r="BZ23" s="72"/>
+      <c r="CA23" s="76"/>
       <c r="CB23" s="42"/>
-      <c r="CC23" s="83"/>
-      <c r="CD23" s="79"/>
-      <c r="CE23" s="83"/>
+      <c r="CC23" s="76"/>
+      <c r="CD23" s="72"/>
+      <c r="CE23" s="76"/>
       <c r="CF23" s="42"/>
-      <c r="CG23" s="83"/>
-      <c r="CH23" s="79"/>
-      <c r="CI23" s="83"/>
+      <c r="CG23" s="76"/>
+      <c r="CH23" s="72"/>
+      <c r="CI23" s="76"/>
       <c r="CJ23" s="42"/>
-      <c r="CK23" s="83"/>
-      <c r="CL23" s="79"/>
-      <c r="CM23" s="83"/>
+      <c r="CK23" s="76"/>
+      <c r="CL23" s="72"/>
+      <c r="CM23" s="76"/>
       <c r="CN23" s="42"/>
-      <c r="CO23" s="83"/>
-      <c r="CP23" s="79"/>
-      <c r="CQ23" s="83"/>
+      <c r="CO23" s="76"/>
+      <c r="CP23" s="72"/>
+      <c r="CQ23" s="76"/>
       <c r="CR23" s="42"/>
-      <c r="CS23" s="83"/>
-      <c r="CT23" s="79"/>
-      <c r="CU23" s="83"/>
+      <c r="CS23" s="76"/>
+      <c r="CT23" s="72"/>
+      <c r="CU23" s="76"/>
       <c r="CV23" s="42"/>
-      <c r="CW23" s="83"/>
-      <c r="CX23" s="79"/>
-      <c r="CY23" s="83"/>
+      <c r="CW23" s="76"/>
+      <c r="CX23" s="72"/>
+      <c r="CY23" s="76"/>
       <c r="CZ23" s="42"/>
-      <c r="DA23" s="83"/>
-      <c r="DB23" s="79"/>
-      <c r="DC23" s="83"/>
+      <c r="DA23" s="76"/>
+      <c r="DB23" s="72"/>
+      <c r="DC23" s="76"/>
       <c r="DD23" s="42"/>
-      <c r="DE23" s="83"/>
-      <c r="DF23" s="79"/>
-      <c r="DG23" s="83"/>
+      <c r="DE23" s="76"/>
+      <c r="DF23" s="72"/>
+      <c r="DG23" s="76"/>
       <c r="DH23" s="42"/>
-      <c r="DI23" s="83"/>
-      <c r="DJ23" s="79"/>
+      <c r="DI23" s="76"/>
+      <c r="DJ23" s="72"/>
       <c r="DK23" s="22"/>
       <c r="DL23" s="22"/>
       <c r="DM23" s="22"/>
@@ -14647,13 +14615,13 @@
       <c r="DO23" s="22"/>
       <c r="DP23" s="22"/>
       <c r="DQ23" s="22"/>
-      <c r="DR23" s="82"/>
-      <c r="DS23" s="82"/>
-      <c r="DT23" s="82"/>
-      <c r="DU23" s="82"/>
-      <c r="DV23" s="82"/>
-      <c r="DW23" s="82"/>
-      <c r="DX23" s="82"/>
+      <c r="DR23" s="75"/>
+      <c r="DS23" s="75"/>
+      <c r="DT23" s="75"/>
+      <c r="DU23" s="75"/>
+      <c r="DV23" s="75"/>
+      <c r="DW23" s="75"/>
+      <c r="DX23" s="75"/>
       <c r="DY23" s="42"/>
       <c r="DZ23" s="42"/>
       <c r="EA23" s="42"/>
@@ -14780,23 +14748,24 @@
       <c r="IR23" s="42"/>
     </row>
     <row r="24" spans="1:252" ht="16">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="66" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D24" s="69">
+      <c r="B24" s="116" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="115">
         <v>249</v>
       </c>
-      <c r="E24" s="87"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="87"/>
+      <c r="L24" s="80"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
@@ -14808,99 +14777,99 @@
       <c r="S24" s="42"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="87"/>
+      <c r="V24" s="80"/>
       <c r="W24" s="61"/>
       <c r="X24" s="43"/>
       <c r="Y24" s="61"/>
       <c r="Z24" s="61"/>
       <c r="AA24" s="42"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="77"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="60"/>
-      <c r="AG24" s="87"/>
+      <c r="AG24" s="80"/>
       <c r="AH24" s="42"/>
-      <c r="AI24" s="79"/>
+      <c r="AI24" s="72"/>
       <c r="AJ24" s="42"/>
-      <c r="AK24" s="80"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="79"/>
+      <c r="AK24" s="73"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="72"/>
       <c r="AN24" s="42"/>
-      <c r="AO24" s="81"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
       <c r="AR24" s="42"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="79"/>
-      <c r="AU24" s="83"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="76"/>
       <c r="AV24" s="42"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="79"/>
-      <c r="AY24" s="83"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="76"/>
       <c r="AZ24" s="42"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="79"/>
-      <c r="BC24" s="83"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="76"/>
       <c r="BD24" s="42"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="79"/>
-      <c r="BG24" s="83"/>
+      <c r="BE24" s="76"/>
+      <c r="BF24" s="72"/>
+      <c r="BG24" s="76"/>
       <c r="BH24" s="42"/>
-      <c r="BI24" s="83"/>
-      <c r="BJ24" s="79"/>
-      <c r="BK24" s="83"/>
+      <c r="BI24" s="76"/>
+      <c r="BJ24" s="72"/>
+      <c r="BK24" s="76"/>
       <c r="BL24" s="42"/>
-      <c r="BM24" s="84"/>
-      <c r="BN24" s="79"/>
-      <c r="BO24" s="83"/>
+      <c r="BM24" s="77"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="76"/>
       <c r="BP24" s="42"/>
-      <c r="BQ24" s="85"/>
-      <c r="BR24" s="79"/>
-      <c r="BS24" s="83"/>
+      <c r="BQ24" s="78"/>
+      <c r="BR24" s="72"/>
+      <c r="BS24" s="76"/>
       <c r="BT24" s="42"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="79"/>
-      <c r="BW24" s="83"/>
+      <c r="BU24" s="76"/>
+      <c r="BV24" s="72"/>
+      <c r="BW24" s="76"/>
       <c r="BX24" s="42"/>
-      <c r="BY24" s="84"/>
-      <c r="BZ24" s="79"/>
-      <c r="CA24" s="83"/>
+      <c r="BY24" s="77"/>
+      <c r="BZ24" s="72"/>
+      <c r="CA24" s="76"/>
       <c r="CB24" s="42"/>
-      <c r="CC24" s="83"/>
-      <c r="CD24" s="79"/>
-      <c r="CE24" s="83"/>
+      <c r="CC24" s="76"/>
+      <c r="CD24" s="72"/>
+      <c r="CE24" s="76"/>
       <c r="CF24" s="42"/>
-      <c r="CG24" s="83"/>
-      <c r="CH24" s="79"/>
-      <c r="CI24" s="83"/>
+      <c r="CG24" s="76"/>
+      <c r="CH24" s="72"/>
+      <c r="CI24" s="76"/>
       <c r="CJ24" s="42"/>
-      <c r="CK24" s="83"/>
-      <c r="CL24" s="79"/>
-      <c r="CM24" s="83"/>
+      <c r="CK24" s="76"/>
+      <c r="CL24" s="72"/>
+      <c r="CM24" s="76"/>
       <c r="CN24" s="42"/>
-      <c r="CO24" s="83"/>
-      <c r="CP24" s="79"/>
-      <c r="CQ24" s="83"/>
+      <c r="CO24" s="76"/>
+      <c r="CP24" s="72"/>
+      <c r="CQ24" s="76"/>
       <c r="CR24" s="42"/>
-      <c r="CS24" s="83"/>
-      <c r="CT24" s="79"/>
-      <c r="CU24" s="83"/>
+      <c r="CS24" s="76"/>
+      <c r="CT24" s="72"/>
+      <c r="CU24" s="76"/>
       <c r="CV24" s="42"/>
-      <c r="CW24" s="83"/>
-      <c r="CX24" s="79"/>
-      <c r="CY24" s="83"/>
+      <c r="CW24" s="76"/>
+      <c r="CX24" s="72"/>
+      <c r="CY24" s="76"/>
       <c r="CZ24" s="42"/>
-      <c r="DA24" s="83"/>
-      <c r="DB24" s="79"/>
-      <c r="DC24" s="83"/>
+      <c r="DA24" s="76"/>
+      <c r="DB24" s="72"/>
+      <c r="DC24" s="76"/>
       <c r="DD24" s="42"/>
-      <c r="DE24" s="83"/>
-      <c r="DF24" s="79"/>
-      <c r="DG24" s="83"/>
+      <c r="DE24" s="76"/>
+      <c r="DF24" s="72"/>
+      <c r="DG24" s="76"/>
       <c r="DH24" s="42"/>
-      <c r="DI24" s="83"/>
-      <c r="DJ24" s="79"/>
+      <c r="DI24" s="76"/>
+      <c r="DJ24" s="72"/>
       <c r="DK24" s="22"/>
       <c r="DL24" s="22"/>
       <c r="DM24" s="22"/>
@@ -15041,23 +15010,24 @@
       <c r="IR24" s="42"/>
     </row>
     <row r="25" spans="1:252" ht="16">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D25" s="69">
+      <c r="B25" s="116" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C25" s="129"/>
+      <c r="D25" s="115">
         <v>129</v>
       </c>
-      <c r="E25" s="87"/>
+      <c r="E25" s="80"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="42"/>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
@@ -15069,99 +15039,99 @@
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
       <c r="Y25" s="61"/>
       <c r="Z25" s="43"/>
       <c r="AA25" s="42"/>
-      <c r="AB25" s="77"/>
+      <c r="AB25" s="70"/>
       <c r="AC25" s="42"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="77"/>
+      <c r="AD25" s="80"/>
+      <c r="AE25" s="70"/>
       <c r="AF25" s="60"/>
-      <c r="AG25" s="87"/>
+      <c r="AG25" s="80"/>
       <c r="AH25" s="42"/>
-      <c r="AI25" s="79"/>
+      <c r="AI25" s="72"/>
       <c r="AJ25" s="42"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="72"/>
       <c r="AN25" s="42"/>
-      <c r="AO25" s="81"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
       <c r="AR25" s="42"/>
-      <c r="AS25" s="82"/>
-      <c r="AT25" s="79"/>
-      <c r="AU25" s="83"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="76"/>
       <c r="AV25" s="42"/>
-      <c r="AW25" s="83"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="83"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="76"/>
       <c r="AZ25" s="42"/>
-      <c r="BA25" s="83"/>
-      <c r="BB25" s="79"/>
-      <c r="BC25" s="83"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="76"/>
       <c r="BD25" s="42"/>
-      <c r="BE25" s="83"/>
-      <c r="BF25" s="79"/>
-      <c r="BG25" s="83"/>
+      <c r="BE25" s="76"/>
+      <c r="BF25" s="72"/>
+      <c r="BG25" s="76"/>
       <c r="BH25" s="42"/>
-      <c r="BI25" s="83"/>
-      <c r="BJ25" s="79"/>
-      <c r="BK25" s="83"/>
+      <c r="BI25" s="76"/>
+      <c r="BJ25" s="72"/>
+      <c r="BK25" s="76"/>
       <c r="BL25" s="42"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="79"/>
-      <c r="BO25" s="83"/>
+      <c r="BM25" s="77"/>
+      <c r="BN25" s="72"/>
+      <c r="BO25" s="76"/>
       <c r="BP25" s="42"/>
-      <c r="BQ25" s="85"/>
-      <c r="BR25" s="79"/>
-      <c r="BS25" s="83"/>
+      <c r="BQ25" s="78"/>
+      <c r="BR25" s="72"/>
+      <c r="BS25" s="76"/>
       <c r="BT25" s="42"/>
-      <c r="BU25" s="83"/>
-      <c r="BV25" s="79"/>
-      <c r="BW25" s="83"/>
+      <c r="BU25" s="76"/>
+      <c r="BV25" s="72"/>
+      <c r="BW25" s="76"/>
       <c r="BX25" s="42"/>
-      <c r="BY25" s="84"/>
-      <c r="BZ25" s="79"/>
-      <c r="CA25" s="83"/>
+      <c r="BY25" s="77"/>
+      <c r="BZ25" s="72"/>
+      <c r="CA25" s="76"/>
       <c r="CB25" s="42"/>
-      <c r="CC25" s="83"/>
-      <c r="CD25" s="79"/>
-      <c r="CE25" s="83"/>
+      <c r="CC25" s="76"/>
+      <c r="CD25" s="72"/>
+      <c r="CE25" s="76"/>
       <c r="CF25" s="42"/>
-      <c r="CG25" s="83"/>
-      <c r="CH25" s="79"/>
-      <c r="CI25" s="83"/>
+      <c r="CG25" s="76"/>
+      <c r="CH25" s="72"/>
+      <c r="CI25" s="76"/>
       <c r="CJ25" s="42"/>
-      <c r="CK25" s="83"/>
-      <c r="CL25" s="79"/>
-      <c r="CM25" s="83"/>
+      <c r="CK25" s="76"/>
+      <c r="CL25" s="72"/>
+      <c r="CM25" s="76"/>
       <c r="CN25" s="42"/>
-      <c r="CO25" s="83"/>
-      <c r="CP25" s="79"/>
-      <c r="CQ25" s="83"/>
+      <c r="CO25" s="76"/>
+      <c r="CP25" s="72"/>
+      <c r="CQ25" s="76"/>
       <c r="CR25" s="42"/>
-      <c r="CS25" s="83"/>
-      <c r="CT25" s="79"/>
-      <c r="CU25" s="83"/>
+      <c r="CS25" s="76"/>
+      <c r="CT25" s="72"/>
+      <c r="CU25" s="76"/>
       <c r="CV25" s="42"/>
-      <c r="CW25" s="83"/>
-      <c r="CX25" s="79"/>
-      <c r="CY25" s="83"/>
+      <c r="CW25" s="76"/>
+      <c r="CX25" s="72"/>
+      <c r="CY25" s="76"/>
       <c r="CZ25" s="42"/>
-      <c r="DA25" s="83"/>
-      <c r="DB25" s="79"/>
-      <c r="DC25" s="83"/>
+      <c r="DA25" s="76"/>
+      <c r="DB25" s="72"/>
+      <c r="DC25" s="76"/>
       <c r="DD25" s="42"/>
-      <c r="DE25" s="83"/>
-      <c r="DF25" s="79"/>
-      <c r="DG25" s="83"/>
+      <c r="DE25" s="76"/>
+      <c r="DF25" s="72"/>
+      <c r="DG25" s="76"/>
       <c r="DH25" s="42"/>
-      <c r="DI25" s="83"/>
-      <c r="DJ25" s="79"/>
+      <c r="DI25" s="76"/>
+      <c r="DJ25" s="72"/>
       <c r="DK25" s="22"/>
       <c r="DL25" s="22"/>
       <c r="DM25" s="22"/>
@@ -15302,127 +15272,128 @@
       <c r="IR25" s="42"/>
     </row>
     <row r="26" spans="1:252" ht="16">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D26" s="69">
+      <c r="B26" s="116" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C26" s="129"/>
+      <c r="D26" s="115">
         <v>149</v>
       </c>
-      <c r="E26" s="87"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
-      <c r="L26" s="87"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42" t="s">
-        <v>1810</v>
+        <v>1759</v>
       </c>
       <c r="Q26" s="42"/>
       <c r="R26" s="42"/>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
       <c r="AA26" s="42"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="77"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="70"/>
       <c r="AF26" s="60"/>
-      <c r="AG26" s="87"/>
+      <c r="AG26" s="80"/>
       <c r="AH26" s="42"/>
-      <c r="AI26" s="79"/>
+      <c r="AI26" s="72"/>
       <c r="AJ26" s="42"/>
-      <c r="AK26" s="80"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
       <c r="AN26" s="42"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
       <c r="AR26" s="42"/>
-      <c r="AS26" s="82"/>
-      <c r="AT26" s="79"/>
-      <c r="AU26" s="83"/>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="76"/>
       <c r="AV26" s="42"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="83"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="76"/>
       <c r="AZ26" s="42"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="83"/>
+      <c r="BA26" s="76"/>
+      <c r="BB26" s="72"/>
+      <c r="BC26" s="76"/>
       <c r="BD26" s="42"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="79"/>
-      <c r="BG26" s="83"/>
+      <c r="BE26" s="76"/>
+      <c r="BF26" s="72"/>
+      <c r="BG26" s="76"/>
       <c r="BH26" s="42"/>
-      <c r="BI26" s="83"/>
-      <c r="BJ26" s="79"/>
-      <c r="BK26" s="83"/>
+      <c r="BI26" s="76"/>
+      <c r="BJ26" s="72"/>
+      <c r="BK26" s="76"/>
       <c r="BL26" s="42"/>
-      <c r="BM26" s="84"/>
-      <c r="BN26" s="79"/>
-      <c r="BO26" s="83"/>
+      <c r="BM26" s="77"/>
+      <c r="BN26" s="72"/>
+      <c r="BO26" s="76"/>
       <c r="BP26" s="42"/>
-      <c r="BQ26" s="85"/>
-      <c r="BR26" s="79"/>
-      <c r="BS26" s="83"/>
+      <c r="BQ26" s="78"/>
+      <c r="BR26" s="72"/>
+      <c r="BS26" s="76"/>
       <c r="BT26" s="42"/>
-      <c r="BU26" s="83"/>
-      <c r="BV26" s="79"/>
-      <c r="BW26" s="83"/>
+      <c r="BU26" s="76"/>
+      <c r="BV26" s="72"/>
+      <c r="BW26" s="76"/>
       <c r="BX26" s="42"/>
-      <c r="BY26" s="84"/>
-      <c r="BZ26" s="79"/>
-      <c r="CA26" s="83"/>
+      <c r="BY26" s="77"/>
+      <c r="BZ26" s="72"/>
+      <c r="CA26" s="76"/>
       <c r="CB26" s="42"/>
-      <c r="CC26" s="83"/>
-      <c r="CD26" s="79"/>
-      <c r="CE26" s="83"/>
+      <c r="CC26" s="76"/>
+      <c r="CD26" s="72"/>
+      <c r="CE26" s="76"/>
       <c r="CF26" s="42"/>
-      <c r="CG26" s="83"/>
-      <c r="CH26" s="79"/>
-      <c r="CI26" s="83"/>
+      <c r="CG26" s="76"/>
+      <c r="CH26" s="72"/>
+      <c r="CI26" s="76"/>
       <c r="CJ26" s="42"/>
-      <c r="CK26" s="83"/>
-      <c r="CL26" s="79"/>
-      <c r="CM26" s="83"/>
+      <c r="CK26" s="76"/>
+      <c r="CL26" s="72"/>
+      <c r="CM26" s="76"/>
       <c r="CN26" s="42"/>
-      <c r="CO26" s="83"/>
-      <c r="CP26" s="79"/>
-      <c r="CQ26" s="83"/>
+      <c r="CO26" s="76"/>
+      <c r="CP26" s="72"/>
+      <c r="CQ26" s="76"/>
       <c r="CR26" s="42"/>
-      <c r="CS26" s="83"/>
-      <c r="CT26" s="79"/>
-      <c r="CU26" s="83"/>
+      <c r="CS26" s="76"/>
+      <c r="CT26" s="72"/>
+      <c r="CU26" s="76"/>
       <c r="CV26" s="42"/>
-      <c r="CW26" s="83"/>
-      <c r="CX26" s="79"/>
-      <c r="CY26" s="83"/>
+      <c r="CW26" s="76"/>
+      <c r="CX26" s="72"/>
+      <c r="CY26" s="76"/>
       <c r="CZ26" s="42"/>
-      <c r="DA26" s="83"/>
-      <c r="DB26" s="79"/>
-      <c r="DC26" s="83"/>
+      <c r="DA26" s="76"/>
+      <c r="DB26" s="72"/>
+      <c r="DC26" s="76"/>
       <c r="DD26" s="42"/>
-      <c r="DE26" s="83"/>
-      <c r="DF26" s="79"/>
-      <c r="DG26" s="83"/>
+      <c r="DE26" s="76"/>
+      <c r="DF26" s="72"/>
+      <c r="DG26" s="76"/>
       <c r="DH26" s="42"/>
-      <c r="DI26" s="83"/>
-      <c r="DJ26" s="79"/>
+      <c r="DI26" s="76"/>
+      <c r="DJ26" s="72"/>
       <c r="DK26" s="22"/>
       <c r="DL26" s="22"/>
       <c r="DM26" s="22"/>
@@ -15430,13 +15401,13 @@
       <c r="DO26" s="22"/>
       <c r="DP26" s="22"/>
       <c r="DQ26" s="22"/>
-      <c r="DR26" s="82"/>
-      <c r="DS26" s="82"/>
-      <c r="DT26" s="82"/>
-      <c r="DU26" s="82"/>
-      <c r="DV26" s="82"/>
-      <c r="DW26" s="82"/>
-      <c r="DX26" s="82"/>
+      <c r="DR26" s="75"/>
+      <c r="DS26" s="75"/>
+      <c r="DT26" s="75"/>
+      <c r="DU26" s="75"/>
+      <c r="DV26" s="75"/>
+      <c r="DW26" s="75"/>
+      <c r="DX26" s="75"/>
       <c r="DY26" s="42"/>
       <c r="DZ26" s="42"/>
       <c r="EA26" s="42"/>
@@ -15563,127 +15534,128 @@
       <c r="IR26" s="42"/>
     </row>
     <row r="27" spans="1:252" ht="16">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D27" s="69">
+      <c r="B27" s="116" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C27" s="129"/>
+      <c r="D27" s="115">
         <v>179</v>
       </c>
-      <c r="E27" s="87"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
-      <c r="L27" s="87"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="Q27" s="87"/>
+      <c r="Q27" s="80"/>
       <c r="R27" s="42"/>
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
       <c r="AA27" s="42"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="77"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="70"/>
       <c r="AF27" s="60"/>
-      <c r="AG27" s="87"/>
+      <c r="AG27" s="80"/>
       <c r="AH27" s="42"/>
-      <c r="AI27" s="79"/>
+      <c r="AI27" s="72"/>
       <c r="AJ27" s="42"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="72"/>
       <c r="AN27" s="42"/>
-      <c r="AO27" s="81"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
       <c r="AR27" s="42"/>
-      <c r="AS27" s="82"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="83"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="76"/>
       <c r="AV27" s="42"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="83"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="76"/>
       <c r="AZ27" s="42"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="79"/>
-      <c r="BC27" s="83"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="76"/>
       <c r="BD27" s="42"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="79"/>
-      <c r="BG27" s="83"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="72"/>
+      <c r="BG27" s="76"/>
       <c r="BH27" s="42"/>
-      <c r="BI27" s="83"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="83"/>
+      <c r="BI27" s="76"/>
+      <c r="BJ27" s="72"/>
+      <c r="BK27" s="76"/>
       <c r="BL27" s="42"/>
-      <c r="BM27" s="84"/>
-      <c r="BN27" s="79"/>
-      <c r="BO27" s="83"/>
+      <c r="BM27" s="77"/>
+      <c r="BN27" s="72"/>
+      <c r="BO27" s="76"/>
       <c r="BP27" s="42"/>
-      <c r="BQ27" s="85"/>
-      <c r="BR27" s="79"/>
-      <c r="BS27" s="83"/>
+      <c r="BQ27" s="78"/>
+      <c r="BR27" s="72"/>
+      <c r="BS27" s="76"/>
       <c r="BT27" s="42"/>
-      <c r="BU27" s="83"/>
-      <c r="BV27" s="79"/>
-      <c r="BW27" s="83"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="72"/>
+      <c r="BW27" s="76"/>
       <c r="BX27" s="42"/>
-      <c r="BY27" s="84"/>
-      <c r="BZ27" s="79"/>
-      <c r="CA27" s="83"/>
+      <c r="BY27" s="77"/>
+      <c r="BZ27" s="72"/>
+      <c r="CA27" s="76"/>
       <c r="CB27" s="42"/>
-      <c r="CC27" s="83"/>
-      <c r="CD27" s="79"/>
-      <c r="CE27" s="83"/>
+      <c r="CC27" s="76"/>
+      <c r="CD27" s="72"/>
+      <c r="CE27" s="76"/>
       <c r="CF27" s="42"/>
-      <c r="CG27" s="83"/>
-      <c r="CH27" s="79"/>
-      <c r="CI27" s="83"/>
+      <c r="CG27" s="76"/>
+      <c r="CH27" s="72"/>
+      <c r="CI27" s="76"/>
       <c r="CJ27" s="42"/>
-      <c r="CK27" s="83"/>
-      <c r="CL27" s="79"/>
-      <c r="CM27" s="83"/>
+      <c r="CK27" s="76"/>
+      <c r="CL27" s="72"/>
+      <c r="CM27" s="76"/>
       <c r="CN27" s="42"/>
-      <c r="CO27" s="83"/>
-      <c r="CP27" s="79"/>
-      <c r="CQ27" s="83"/>
+      <c r="CO27" s="76"/>
+      <c r="CP27" s="72"/>
+      <c r="CQ27" s="76"/>
       <c r="CR27" s="42"/>
-      <c r="CS27" s="83"/>
-      <c r="CT27" s="79"/>
-      <c r="CU27" s="83"/>
+      <c r="CS27" s="76"/>
+      <c r="CT27" s="72"/>
+      <c r="CU27" s="76"/>
       <c r="CV27" s="42"/>
-      <c r="CW27" s="83"/>
-      <c r="CX27" s="79"/>
-      <c r="CY27" s="83"/>
+      <c r="CW27" s="76"/>
+      <c r="CX27" s="72"/>
+      <c r="CY27" s="76"/>
       <c r="CZ27" s="42"/>
-      <c r="DA27" s="83"/>
-      <c r="DB27" s="79"/>
-      <c r="DC27" s="83"/>
+      <c r="DA27" s="76"/>
+      <c r="DB27" s="72"/>
+      <c r="DC27" s="76"/>
       <c r="DD27" s="42"/>
-      <c r="DE27" s="83"/>
-      <c r="DF27" s="79"/>
-      <c r="DG27" s="83"/>
+      <c r="DE27" s="76"/>
+      <c r="DF27" s="72"/>
+      <c r="DG27" s="76"/>
       <c r="DH27" s="42"/>
-      <c r="DI27" s="83"/>
-      <c r="DJ27" s="79"/>
+      <c r="DI27" s="76"/>
+      <c r="DJ27" s="72"/>
       <c r="DK27" s="22"/>
       <c r="DL27" s="22"/>
       <c r="DM27" s="22"/>
@@ -15691,13 +15663,13 @@
       <c r="DO27" s="22"/>
       <c r="DP27" s="22"/>
       <c r="DQ27" s="22"/>
-      <c r="DR27" s="82"/>
-      <c r="DS27" s="82"/>
-      <c r="DT27" s="82"/>
-      <c r="DU27" s="82"/>
-      <c r="DV27" s="82"/>
-      <c r="DW27" s="82"/>
-      <c r="DX27" s="82"/>
+      <c r="DR27" s="75"/>
+      <c r="DS27" s="75"/>
+      <c r="DT27" s="75"/>
+      <c r="DU27" s="75"/>
+      <c r="DV27" s="75"/>
+      <c r="DW27" s="75"/>
+      <c r="DX27" s="75"/>
       <c r="DY27" s="42"/>
       <c r="DZ27" s="42"/>
       <c r="EA27" s="42"/>
@@ -15824,23 +15796,24 @@
       <c r="IR27" s="42"/>
     </row>
     <row r="28" spans="1:252" ht="16">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>1731</v>
-      </c>
-      <c r="D28" s="69">
+      <c r="B28" s="116" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="115">
         <v>219</v>
       </c>
-      <c r="E28" s="87"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
-      <c r="L28" s="87"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
@@ -15848,7 +15821,7 @@
         <v>893</v>
       </c>
       <c r="Q28" s="42" t="s">
-        <v>1811</v>
+        <v>1760</v>
       </c>
       <c r="R28" s="42"/>
       <c r="S28" s="42"/>
@@ -15857,96 +15830,96 @@
       <c r="V28" s="64"/>
       <c r="W28" s="42"/>
       <c r="X28" s="64"/>
-      <c r="Y28" s="87"/>
+      <c r="Y28" s="80"/>
       <c r="Z28" s="42"/>
       <c r="AA28" s="42"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="77"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="70"/>
       <c r="AF28" s="60"/>
-      <c r="AG28" s="87"/>
+      <c r="AG28" s="80"/>
       <c r="AH28" s="42"/>
-      <c r="AI28" s="79"/>
+      <c r="AI28" s="72"/>
       <c r="AJ28" s="42"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="72"/>
       <c r="AN28" s="42"/>
-      <c r="AO28" s="81"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
       <c r="AR28" s="42"/>
-      <c r="AS28" s="82"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="83"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="76"/>
       <c r="AV28" s="42"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="83"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="76"/>
       <c r="AZ28" s="42"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="83"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="72"/>
+      <c r="BC28" s="76"/>
       <c r="BD28" s="42"/>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="79"/>
-      <c r="BG28" s="83"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="72"/>
+      <c r="BG28" s="76"/>
       <c r="BH28" s="42"/>
-      <c r="BI28" s="83"/>
-      <c r="BJ28" s="79"/>
-      <c r="BK28" s="83"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="72"/>
+      <c r="BK28" s="76"/>
       <c r="BL28" s="42"/>
-      <c r="BM28" s="84"/>
-      <c r="BN28" s="79"/>
-      <c r="BO28" s="83"/>
+      <c r="BM28" s="77"/>
+      <c r="BN28" s="72"/>
+      <c r="BO28" s="76"/>
       <c r="BP28" s="42"/>
-      <c r="BQ28" s="85"/>
-      <c r="BR28" s="79"/>
-      <c r="BS28" s="83"/>
+      <c r="BQ28" s="78"/>
+      <c r="BR28" s="72"/>
+      <c r="BS28" s="76"/>
       <c r="BT28" s="42"/>
-      <c r="BU28" s="83"/>
-      <c r="BV28" s="79"/>
-      <c r="BW28" s="83"/>
+      <c r="BU28" s="76"/>
+      <c r="BV28" s="72"/>
+      <c r="BW28" s="76"/>
       <c r="BX28" s="42"/>
-      <c r="BY28" s="84"/>
-      <c r="BZ28" s="79"/>
-      <c r="CA28" s="83"/>
+      <c r="BY28" s="77"/>
+      <c r="BZ28" s="72"/>
+      <c r="CA28" s="76"/>
       <c r="CB28" s="42"/>
-      <c r="CC28" s="83"/>
-      <c r="CD28" s="79"/>
-      <c r="CE28" s="83"/>
+      <c r="CC28" s="76"/>
+      <c r="CD28" s="72"/>
+      <c r="CE28" s="76"/>
       <c r="CF28" s="42"/>
-      <c r="CG28" s="83"/>
-      <c r="CH28" s="79"/>
-      <c r="CI28" s="83"/>
+      <c r="CG28" s="76"/>
+      <c r="CH28" s="72"/>
+      <c r="CI28" s="76"/>
       <c r="CJ28" s="42"/>
-      <c r="CK28" s="83"/>
-      <c r="CL28" s="79"/>
-      <c r="CM28" s="83"/>
+      <c r="CK28" s="76"/>
+      <c r="CL28" s="72"/>
+      <c r="CM28" s="76"/>
       <c r="CN28" s="42"/>
-      <c r="CO28" s="83"/>
-      <c r="CP28" s="79"/>
-      <c r="CQ28" s="83"/>
+      <c r="CO28" s="76"/>
+      <c r="CP28" s="72"/>
+      <c r="CQ28" s="76"/>
       <c r="CR28" s="42"/>
-      <c r="CS28" s="83"/>
-      <c r="CT28" s="79"/>
-      <c r="CU28" s="83"/>
+      <c r="CS28" s="76"/>
+      <c r="CT28" s="72"/>
+      <c r="CU28" s="76"/>
       <c r="CV28" s="42"/>
-      <c r="CW28" s="83"/>
-      <c r="CX28" s="79"/>
-      <c r="CY28" s="83"/>
+      <c r="CW28" s="76"/>
+      <c r="CX28" s="72"/>
+      <c r="CY28" s="76"/>
       <c r="CZ28" s="42"/>
-      <c r="DA28" s="83"/>
-      <c r="DB28" s="79"/>
-      <c r="DC28" s="83"/>
+      <c r="DA28" s="76"/>
+      <c r="DB28" s="72"/>
+      <c r="DC28" s="76"/>
       <c r="DD28" s="42"/>
-      <c r="DE28" s="83"/>
-      <c r="DF28" s="79"/>
-      <c r="DG28" s="83"/>
+      <c r="DE28" s="76"/>
+      <c r="DF28" s="72"/>
+      <c r="DG28" s="76"/>
       <c r="DH28" s="42"/>
-      <c r="DI28" s="83"/>
-      <c r="DJ28" s="79"/>
+      <c r="DI28" s="76"/>
+      <c r="DJ28" s="72"/>
       <c r="DK28" s="22"/>
       <c r="DL28" s="22"/>
       <c r="DM28" s="22"/>
@@ -15954,13 +15927,13 @@
       <c r="DO28" s="22"/>
       <c r="DP28" s="22"/>
       <c r="DQ28" s="22"/>
-      <c r="DR28" s="82"/>
-      <c r="DS28" s="82"/>
-      <c r="DT28" s="82"/>
-      <c r="DU28" s="82"/>
-      <c r="DV28" s="82"/>
-      <c r="DW28" s="82"/>
-      <c r="DX28" s="82"/>
+      <c r="DR28" s="75"/>
+      <c r="DS28" s="75"/>
+      <c r="DT28" s="75"/>
+      <c r="DU28" s="75"/>
+      <c r="DV28" s="75"/>
+      <c r="DW28" s="75"/>
+      <c r="DX28" s="75"/>
       <c r="DY28" s="42"/>
       <c r="DZ28" s="42"/>
       <c r="EA28" s="42"/>
@@ -16087,28 +16060,29 @@
       <c r="IR28" s="42"/>
     </row>
     <row r="29" spans="1:252" ht="16">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D29" s="69">
+      <c r="B29" s="116" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C29" s="129"/>
+      <c r="D29" s="115">
         <v>219</v>
       </c>
-      <c r="E29" s="77"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="87"/>
+      <c r="L29" s="80"/>
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42" t="s">
-        <v>1812</v>
+        <v>1761</v>
       </c>
       <c r="Q29" s="42" t="s">
         <v>889</v>
@@ -16121,14 +16095,14 @@
       <c r="W29" s="61"/>
       <c r="X29" s="43"/>
       <c r="Y29" s="42"/>
-      <c r="Z29" s="87"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="42"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
       <c r="AD29" s="35"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
       <c r="AH29" s="42"/>
       <c r="AI29" s="52"/>
       <c r="AJ29" s="52"/>
@@ -16140,7 +16114,7 @@
       <c r="AP29" s="54"/>
       <c r="AQ29" s="52"/>
       <c r="AR29" s="52"/>
-      <c r="AS29" s="82"/>
+      <c r="AS29" s="75"/>
       <c r="AT29" s="54"/>
       <c r="AU29" s="52"/>
       <c r="AV29" s="52"/>
@@ -16217,13 +16191,13 @@
       <c r="DO29" s="22"/>
       <c r="DP29" s="22"/>
       <c r="DQ29" s="22"/>
-      <c r="DR29" s="82"/>
-      <c r="DS29" s="82"/>
-      <c r="DT29" s="82"/>
-      <c r="DU29" s="82"/>
-      <c r="DV29" s="82"/>
-      <c r="DW29" s="82"/>
-      <c r="DX29" s="82"/>
+      <c r="DR29" s="75"/>
+      <c r="DS29" s="75"/>
+      <c r="DT29" s="75"/>
+      <c r="DU29" s="75"/>
+      <c r="DV29" s="75"/>
+      <c r="DW29" s="75"/>
+      <c r="DX29" s="75"/>
       <c r="DY29" s="42"/>
       <c r="DZ29" s="42"/>
       <c r="EA29" s="42"/>
@@ -16350,28 +16324,29 @@
       <c r="IR29" s="42"/>
     </row>
     <row r="30" spans="1:252" ht="21">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="67" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D30" s="69">
+      <c r="B30" s="117" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C30" s="129"/>
+      <c r="D30" s="115">
         <v>199</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="90"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="83"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
-      <c r="L30" s="87"/>
+      <c r="L30" s="80"/>
       <c r="M30" s="42"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42" t="s">
-        <v>1812</v>
+        <v>1761</v>
       </c>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -16384,100 +16359,100 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
       <c r="AA30" s="42"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
       <c r="AG30" s="60"/>
       <c r="AH30" s="42"/>
-      <c r="AI30" s="92"/>
+      <c r="AI30" s="85"/>
       <c r="AJ30" s="42"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="94"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="87"/>
       <c r="AN30" s="42"/>
-      <c r="AO30" s="93"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="95"/>
+      <c r="AO30" s="86"/>
+      <c r="AP30" s="80"/>
+      <c r="AQ30" s="88"/>
       <c r="AR30" s="42"/>
-      <c r="AS30" s="93"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="96"/>
+      <c r="AS30" s="86"/>
+      <c r="AT30" s="80"/>
+      <c r="AU30" s="89"/>
       <c r="AV30" s="42"/>
-      <c r="AW30" s="93"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="87"/>
+      <c r="AW30" s="86"/>
+      <c r="AX30" s="90"/>
+      <c r="AY30" s="80"/>
       <c r="AZ30" s="42"/>
       <c r="BA30" s="42"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="98"/>
+      <c r="BB30" s="80"/>
+      <c r="BC30" s="91"/>
       <c r="BD30" s="42"/>
-      <c r="BE30" s="93"/>
-      <c r="BF30" s="87"/>
-      <c r="BG30" s="97"/>
+      <c r="BE30" s="86"/>
+      <c r="BF30" s="80"/>
+      <c r="BG30" s="90"/>
       <c r="BH30" s="42"/>
-      <c r="BI30" s="93"/>
-      <c r="BJ30" s="87"/>
-      <c r="BK30" s="99"/>
+      <c r="BI30" s="86"/>
+      <c r="BJ30" s="80"/>
+      <c r="BK30" s="92"/>
       <c r="BL30" s="42"/>
-      <c r="BM30" s="93"/>
-      <c r="BN30" s="87"/>
-      <c r="BO30" s="97"/>
+      <c r="BM30" s="86"/>
+      <c r="BN30" s="80"/>
+      <c r="BO30" s="90"/>
       <c r="BP30" s="42"/>
-      <c r="BQ30" s="93"/>
-      <c r="BR30" s="87"/>
-      <c r="BS30" s="100"/>
+      <c r="BQ30" s="86"/>
+      <c r="BR30" s="80"/>
+      <c r="BS30" s="93"/>
       <c r="BT30" s="42"/>
-      <c r="BU30" s="93"/>
-      <c r="BV30" s="100"/>
-      <c r="BW30" s="95"/>
+      <c r="BU30" s="86"/>
+      <c r="BV30" s="93"/>
+      <c r="BW30" s="88"/>
       <c r="BX30" s="42"/>
-      <c r="BY30" s="101"/>
-      <c r="BZ30" s="87"/>
-      <c r="CA30" s="102"/>
+      <c r="BY30" s="94"/>
+      <c r="BZ30" s="80"/>
+      <c r="CA30" s="95"/>
       <c r="CB30" s="42"/>
-      <c r="CC30" s="93"/>
-      <c r="CD30" s="87"/>
-      <c r="CE30" s="103"/>
+      <c r="CC30" s="86"/>
+      <c r="CD30" s="80"/>
+      <c r="CE30" s="96"/>
       <c r="CF30" s="42"/>
-      <c r="CG30" s="93"/>
-      <c r="CH30" s="87"/>
-      <c r="CI30" s="94"/>
+      <c r="CG30" s="86"/>
+      <c r="CH30" s="80"/>
+      <c r="CI30" s="87"/>
       <c r="CJ30" s="42"/>
-      <c r="CK30" s="93"/>
-      <c r="CL30" s="87"/>
-      <c r="CM30" s="95"/>
+      <c r="CK30" s="86"/>
+      <c r="CL30" s="80"/>
+      <c r="CM30" s="88"/>
       <c r="CN30" s="42"/>
-      <c r="CO30" s="101"/>
-      <c r="CP30" s="87"/>
-      <c r="CQ30" s="97"/>
+      <c r="CO30" s="94"/>
+      <c r="CP30" s="80"/>
+      <c r="CQ30" s="90"/>
       <c r="CR30" s="42"/>
-      <c r="CS30" s="93"/>
-      <c r="CT30" s="87"/>
-      <c r="CU30" s="104"/>
+      <c r="CS30" s="86"/>
+      <c r="CT30" s="80"/>
+      <c r="CU30" s="97"/>
       <c r="CV30" s="42"/>
-      <c r="CW30" s="93"/>
-      <c r="CX30" s="87"/>
-      <c r="CY30" s="105"/>
+      <c r="CW30" s="86"/>
+      <c r="CX30" s="80"/>
+      <c r="CY30" s="98"/>
       <c r="CZ30" s="42"/>
-      <c r="DA30" s="93"/>
-      <c r="DB30" s="87"/>
-      <c r="DC30" s="97"/>
+      <c r="DA30" s="86"/>
+      <c r="DB30" s="80"/>
+      <c r="DC30" s="90"/>
       <c r="DD30" s="42"/>
-      <c r="DE30" s="93"/>
-      <c r="DF30" s="87"/>
-      <c r="DG30" s="97"/>
+      <c r="DE30" s="86"/>
+      <c r="DF30" s="80"/>
+      <c r="DG30" s="90"/>
       <c r="DH30" s="42"/>
-      <c r="DI30" s="93"/>
-      <c r="DJ30" s="87"/>
-      <c r="DK30" s="82"/>
-      <c r="DL30" s="82"/>
-      <c r="DM30" s="82"/>
-      <c r="DN30" s="82"/>
-      <c r="DO30" s="82"/>
-      <c r="DP30" s="82"/>
-      <c r="DQ30" s="82"/>
+      <c r="DI30" s="86"/>
+      <c r="DJ30" s="80"/>
+      <c r="DK30" s="75"/>
+      <c r="DL30" s="75"/>
+      <c r="DM30" s="75"/>
+      <c r="DN30" s="75"/>
+      <c r="DO30" s="75"/>
+      <c r="DP30" s="75"/>
+      <c r="DQ30" s="75"/>
       <c r="DR30" s="35"/>
       <c r="DS30" s="35"/>
       <c r="DT30" s="35"/>
@@ -16611,28 +16586,29 @@
       <c r="IR30" s="42"/>
     </row>
     <row r="31" spans="1:252" s="58" customFormat="1" ht="28">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="66" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D31" s="69">
+      <c r="B31" s="116" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C31" s="130"/>
+      <c r="D31" s="115">
         <v>149</v>
       </c>
-      <c r="E31" s="87"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
-      <c r="L31" s="87"/>
+      <c r="L31" s="80"/>
       <c r="M31" s="42"/>
       <c r="N31" s="42"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42" t="s">
-        <v>1813</v>
+        <v>1762</v>
       </c>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -16645,93 +16621,93 @@
       <c r="Y31" s="61"/>
       <c r="Z31" s="43"/>
       <c r="AA31" s="42"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="80"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
       <c r="AG31" s="60"/>
       <c r="AH31" s="42"/>
-      <c r="AI31" s="97"/>
+      <c r="AI31" s="90"/>
       <c r="AJ31" s="42"/>
-      <c r="AK31" s="93"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="97"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="90"/>
       <c r="AN31" s="42"/>
-      <c r="AO31" s="101"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="106"/>
+      <c r="AO31" s="94"/>
+      <c r="AP31" s="80"/>
+      <c r="AQ31" s="99"/>
       <c r="AR31" s="42"/>
-      <c r="AS31" s="93"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="107"/>
+      <c r="AS31" s="86"/>
+      <c r="AT31" s="80"/>
+      <c r="AU31" s="100"/>
       <c r="AV31" s="42"/>
-      <c r="AW31" s="93"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="100"/>
+      <c r="AW31" s="86"/>
+      <c r="AX31" s="80"/>
+      <c r="AY31" s="93"/>
       <c r="AZ31" s="42"/>
-      <c r="BA31" s="93"/>
-      <c r="BB31" s="87"/>
-      <c r="BC31" s="108"/>
+      <c r="BA31" s="86"/>
+      <c r="BB31" s="80"/>
+      <c r="BC31" s="101"/>
       <c r="BD31" s="42"/>
-      <c r="BE31" s="93"/>
-      <c r="BF31" s="87"/>
-      <c r="BG31" s="97"/>
+      <c r="BE31" s="86"/>
+      <c r="BF31" s="80"/>
+      <c r="BG31" s="90"/>
       <c r="BH31" s="42"/>
-      <c r="BI31" s="93"/>
-      <c r="BJ31" s="87"/>
-      <c r="BK31" s="97"/>
+      <c r="BI31" s="86"/>
+      <c r="BJ31" s="80"/>
+      <c r="BK31" s="90"/>
       <c r="BL31" s="42"/>
-      <c r="BM31" s="93"/>
-      <c r="BN31" s="87"/>
-      <c r="BO31" s="109"/>
+      <c r="BM31" s="86"/>
+      <c r="BN31" s="80"/>
+      <c r="BO31" s="102"/>
       <c r="BP31" s="42"/>
-      <c r="BQ31" s="93"/>
-      <c r="BR31" s="87"/>
-      <c r="BS31" s="100"/>
+      <c r="BQ31" s="86"/>
+      <c r="BR31" s="80"/>
+      <c r="BS31" s="93"/>
       <c r="BT31" s="42"/>
-      <c r="BU31" s="93"/>
-      <c r="BV31" s="87"/>
-      <c r="BW31" s="110"/>
+      <c r="BU31" s="86"/>
+      <c r="BV31" s="80"/>
+      <c r="BW31" s="103"/>
       <c r="BX31" s="42"/>
-      <c r="BY31" s="93"/>
-      <c r="BZ31" s="87"/>
-      <c r="CA31" s="97"/>
+      <c r="BY31" s="86"/>
+      <c r="BZ31" s="80"/>
+      <c r="CA31" s="90"/>
       <c r="CB31" s="42"/>
-      <c r="CC31" s="93"/>
-      <c r="CD31" s="87"/>
-      <c r="CE31" s="111"/>
+      <c r="CC31" s="86"/>
+      <c r="CD31" s="80"/>
+      <c r="CE31" s="104"/>
       <c r="CF31" s="42"/>
-      <c r="CG31" s="93"/>
-      <c r="CH31" s="87"/>
-      <c r="CI31" s="97"/>
+      <c r="CG31" s="86"/>
+      <c r="CH31" s="80"/>
+      <c r="CI31" s="90"/>
       <c r="CJ31" s="42"/>
-      <c r="CK31" s="93"/>
-      <c r="CL31" s="87"/>
-      <c r="CM31" s="97"/>
+      <c r="CK31" s="86"/>
+      <c r="CL31" s="80"/>
+      <c r="CM31" s="90"/>
       <c r="CN31" s="42"/>
-      <c r="CO31" s="93"/>
-      <c r="CP31" s="87"/>
-      <c r="CQ31" s="112"/>
+      <c r="CO31" s="86"/>
+      <c r="CP31" s="80"/>
+      <c r="CQ31" s="105"/>
       <c r="CR31" s="42"/>
-      <c r="CS31" s="93"/>
-      <c r="CT31" s="87"/>
-      <c r="CU31" s="97"/>
+      <c r="CS31" s="86"/>
+      <c r="CT31" s="80"/>
+      <c r="CU31" s="90"/>
       <c r="CV31" s="42"/>
-      <c r="CW31" s="93"/>
-      <c r="CX31" s="87"/>
-      <c r="CY31" s="95"/>
+      <c r="CW31" s="86"/>
+      <c r="CX31" s="80"/>
+      <c r="CY31" s="88"/>
       <c r="CZ31" s="42"/>
-      <c r="DA31" s="101"/>
-      <c r="DB31" s="87"/>
-      <c r="DC31" s="97"/>
+      <c r="DA31" s="94"/>
+      <c r="DB31" s="80"/>
+      <c r="DC31" s="90"/>
       <c r="DD31" s="42"/>
-      <c r="DE31" s="93"/>
-      <c r="DF31" s="87"/>
-      <c r="DG31" s="97"/>
+      <c r="DE31" s="86"/>
+      <c r="DF31" s="80"/>
+      <c r="DG31" s="90"/>
       <c r="DH31" s="42"/>
-      <c r="DI31" s="93"/>
-      <c r="DJ31" s="87"/>
+      <c r="DI31" s="86"/>
+      <c r="DJ31" s="80"/>
       <c r="DK31" s="22"/>
       <c r="DL31" s="22"/>
       <c r="DM31" s="22"/>
@@ -16872,16 +16848,17 @@
       <c r="IR31" s="42"/>
     </row>
     <row r="32" spans="1:252">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="67" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D32" s="69">
+      <c r="B32" s="117" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C32" s="129"/>
+      <c r="D32" s="115">
         <v>269</v>
       </c>
-      <c r="E32" s="113"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
@@ -16899,7 +16876,7 @@
         <v>889</v>
       </c>
       <c r="R32" s="42" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
       <c r="S32" s="42" t="s">
         <v>885</v>
@@ -16915,9 +16892,9 @@
       <c r="AB32" s="42"/>
       <c r="AC32" s="42"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="87"/>
+      <c r="AE32" s="80"/>
       <c r="AF32" s="42"/>
-      <c r="AG32" s="87"/>
+      <c r="AG32" s="80"/>
       <c r="AH32" s="42"/>
       <c r="AI32" s="42"/>
       <c r="AJ32" s="42"/>
@@ -17139,58 +17116,62 @@
       <c r="IR32" s="42"/>
     </row>
     <row r="33" spans="1:19" ht="30">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="115" t="s">
         <v>895</v>
       </c>
-      <c r="B33" s="66" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D33" s="69">
+      <c r="B33" s="116" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C33" s="129"/>
+      <c r="D33" s="115">
         <v>199</v>
       </c>
-      <c r="P33" s="87" t="s">
-        <v>1814</v>
+      <c r="P33" s="80" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="115" t="s">
         <v>897</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D34" s="69">
+      <c r="B34" s="116" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C34" s="129"/>
+      <c r="D34" s="115">
         <v>299</v>
       </c>
       <c r="P34" s="42" t="s">
-        <v>1812</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D35" s="69">
+      <c r="B35" s="116" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C35" s="129"/>
+      <c r="D35" s="115">
         <v>199</v>
       </c>
       <c r="P35" s="42" t="s">
-        <v>1815</v>
+        <v>1764</v>
       </c>
       <c r="Q35" t="s">
-        <v>1816</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="67" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D36" s="69">
+      <c r="B36" s="117" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C36" s="129"/>
+      <c r="D36" s="115">
         <v>249</v>
       </c>
       <c r="P36" s="42" t="s">
@@ -17204,13 +17185,14 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D37" s="69">
+      <c r="B37" s="116" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C37" s="129"/>
+      <c r="D37" s="115">
         <v>199</v>
       </c>
       <c r="P37" s="42" t="s">
@@ -17220,20 +17202,21 @@
         <v>890</v>
       </c>
       <c r="R37" t="s">
-        <v>1817</v>
+        <v>1766</v>
       </c>
       <c r="S37" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="67" t="s">
-        <v>1741</v>
-      </c>
-      <c r="D38" s="69">
+      <c r="B38" s="117" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C38" s="129"/>
+      <c r="D38" s="115">
         <v>249</v>
       </c>
       <c r="P38" s="42" t="s">
@@ -17250,31 +17233,33 @@
       </c>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="66" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D39" s="69">
+      <c r="B39" s="116" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C39" s="129"/>
+      <c r="D39" s="115">
         <v>269</v>
       </c>
       <c r="P39" s="42" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="69" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B40" s="66" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D40" s="69">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16">
+      <c r="A40" s="131">
+        <v>1310003</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C40" s="132"/>
+      <c r="D40" s="121">
         <v>179</v>
       </c>
       <c r="P40" s="42" t="s">
-        <v>1818</v>
+        <v>1767</v>
       </c>
       <c r="Q40" t="s">
         <v>890</v>
@@ -17286,14 +17271,15 @@
         <v>886</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="69" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B41" s="69" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D41" s="69">
+    <row r="41" spans="1:19" ht="16">
+      <c r="A41" s="131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C41" s="129"/>
+      <c r="D41" s="115">
         <v>299</v>
       </c>
       <c r="P41" s="42" t="s">
@@ -17306,28 +17292,30 @@
         <v>884</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="69" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B42" s="69" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D42" s="69">
+    <row r="42" spans="1:19" ht="16">
+      <c r="A42" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C42" s="129"/>
+      <c r="D42" s="115">
         <v>229</v>
       </c>
       <c r="P42" s="42" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="69" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B43" s="69" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D43" s="69">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16">
+      <c r="A43" s="131" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B43" s="115" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C43" s="129"/>
+      <c r="D43" s="115">
         <v>279</v>
       </c>
       <c r="P43" s="42" t="s">
@@ -17340,54 +17328,57 @@
         <v>885</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="69" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B44" s="69" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D44" s="69">
+    <row r="44" spans="1:19" ht="16">
+      <c r="A44" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="115" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C44" s="129"/>
+      <c r="D44" s="115">
         <v>279</v>
       </c>
       <c r="P44" s="42" t="s">
         <v>894</v>
       </c>
       <c r="Q44" t="s">
-        <v>1819</v>
+        <v>1768</v>
       </c>
       <c r="R44" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="69" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B45" s="69" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D45" s="69">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16">
+      <c r="A45" s="133">
+        <v>1310014</v>
+      </c>
+      <c r="B45" s="122" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C45" s="134"/>
+      <c r="D45" s="122">
         <v>269</v>
       </c>
       <c r="P45" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q45" t="s">
-        <v>1821</v>
+        <v>1770</v>
       </c>
       <c r="R45" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="69" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D46" s="69">
+    <row r="46" spans="1:19" ht="16">
+      <c r="A46" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C46" s="129"/>
+      <c r="D46" s="115">
         <v>299</v>
       </c>
       <c r="P46" s="42" t="s">
@@ -17397,28 +17388,30 @@
         <v>893</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="69" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D47" s="69">
+    <row r="47" spans="1:19" ht="16">
+      <c r="A47" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C47" s="129"/>
+      <c r="D47" s="115">
         <v>349</v>
       </c>
       <c r="P47" s="42" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="69" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B48" s="69" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D48" s="69">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16">
+      <c r="A48" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="122" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C48" s="134"/>
+      <c r="D48" s="122">
         <v>349</v>
       </c>
       <c r="P48" s="42" t="s">
@@ -17428,14 +17421,15 @@
         <v>889</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="69" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D49" s="69">
+    <row r="49" spans="1:19" ht="16">
+      <c r="A49" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="122" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C49" s="134"/>
+      <c r="D49" s="122">
         <v>249</v>
       </c>
       <c r="P49" s="42" t="s">
@@ -17448,14 +17442,15 @@
         <v>883</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="69" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B50" s="69" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D50" s="69">
+    <row r="50" spans="1:19" ht="16">
+      <c r="A50" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="115" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C50" s="129"/>
+      <c r="D50" s="115">
         <v>299</v>
       </c>
       <c r="P50" s="42" t="s">
@@ -17465,14 +17460,15 @@
         <v>888</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="69" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B51" s="69" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D51" s="69">
+    <row r="51" spans="1:19" ht="16">
+      <c r="A51" s="131" t="s">
+        <v>705</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C51" s="129"/>
+      <c r="D51" s="115">
         <v>299</v>
       </c>
       <c r="P51" s="42" t="s">
@@ -17485,14 +17481,15 @@
         <v>885</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="69" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B52" s="69" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D52" s="69">
+    <row r="52" spans="1:19" ht="16">
+      <c r="A52" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C52" s="129"/>
+      <c r="D52" s="115">
         <v>299</v>
       </c>
       <c r="P52" s="42" t="s">
@@ -17505,136 +17502,144 @@
         <v>885</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="69" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B53" s="69" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D53" s="69">
+    <row r="53" spans="1:19" ht="16">
+      <c r="A53" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="121" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C53" s="132"/>
+      <c r="D53" s="121">
         <v>249</v>
       </c>
       <c r="P53" s="42" t="s">
         <v>893</v>
       </c>
       <c r="Q53" t="s">
-        <v>1818</v>
+        <v>1767</v>
       </c>
       <c r="R53" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="69" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B54" s="69" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D54" s="69">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="16">
+      <c r="A54" s="133" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B54" s="122" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C54" s="134"/>
+      <c r="D54" s="122">
         <v>169</v>
       </c>
       <c r="P54" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q54" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="R54" t="s">
-        <v>1804</v>
+        <v>1753</v>
       </c>
       <c r="S54" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="69" t="s">
-        <v>1679</v>
-      </c>
-      <c r="B55" s="69" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D55" s="69">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="16">
+      <c r="A55" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="122" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C55" s="134"/>
+      <c r="D55" s="122">
         <v>199</v>
       </c>
       <c r="P55" s="42" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
       <c r="Q55" t="s">
-        <v>1804</v>
+        <v>1753</v>
       </c>
       <c r="R55" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="69" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B56" s="69" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D56" s="69">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="16">
+      <c r="A56" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="122" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C56" s="134"/>
+      <c r="D56" s="122">
         <v>179</v>
       </c>
       <c r="P56" s="42" t="s">
         <v>888</v>
       </c>
       <c r="Q56" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="69" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B57" s="69" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D57" s="69">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="16">
+      <c r="A57" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="122" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C57" s="134"/>
+      <c r="D57" s="122">
         <v>499</v>
       </c>
       <c r="P57" s="42" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="69" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B58" s="69" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D58" s="69">
+    <row r="58" spans="1:19" ht="16">
+      <c r="A58" s="131" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B58" s="115" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C58" s="129"/>
+      <c r="D58" s="115">
         <v>199</v>
       </c>
       <c r="P58" s="42" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="69" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D59" s="69">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="16">
+      <c r="A59" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C59" s="129"/>
+      <c r="D59" s="115">
         <v>199</v>
       </c>
       <c r="P59" s="42" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="69" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B60" s="69" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D60" s="69">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="16">
+      <c r="A60" s="131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="121" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C60" s="132"/>
+      <c r="D60" s="121">
         <v>229</v>
       </c>
       <c r="P60" s="42" t="s">
@@ -17648,13 +17653,14 @@
       </c>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="69" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D61" s="69">
+      <c r="B61" s="115" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C61" s="129"/>
+      <c r="D61" s="115">
         <v>249</v>
       </c>
       <c r="P61" s="42" t="s">
@@ -17664,20 +17670,21 @@
         <v>889</v>
       </c>
       <c r="R61" t="s">
-        <v>1805</v>
+        <v>1754</v>
       </c>
       <c r="S61" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="69" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B62" s="69" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D62" s="69">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="16">
+      <c r="A62" s="133" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="122" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C62" s="134"/>
+      <c r="D62" s="122">
         <v>229</v>
       </c>
       <c r="P62" s="42" t="s">
@@ -17687,28 +17694,30 @@
         <v>890</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="69" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D63" s="69">
+    <row r="63" spans="1:19" ht="16">
+      <c r="A63" s="131" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B63" s="115" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C63" s="129"/>
+      <c r="D63" s="115">
         <v>179</v>
       </c>
       <c r="P63" s="42" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="69" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B64" s="69" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D64" s="69">
+    <row r="64" spans="1:19" ht="16">
+      <c r="A64" s="131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="115" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C64" s="129"/>
+      <c r="D64" s="115">
         <v>149</v>
       </c>
       <c r="P64" s="42" t="s">
@@ -17716,13 +17725,14 @@
       </c>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="69" t="s">
+      <c r="A65" s="115" t="s">
         <v>1496</v>
       </c>
-      <c r="B65" s="69" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D65" s="69">
+      <c r="B65" s="115" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C65" s="129"/>
+      <c r="D65" s="115">
         <v>199</v>
       </c>
       <c r="P65" s="42" t="s">
@@ -17730,44 +17740,47 @@
       </c>
     </row>
     <row r="66" spans="1:19">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="115" t="s">
         <v>896</v>
       </c>
-      <c r="B66" s="69" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D66" s="69">
+      <c r="B66" s="115" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C66" s="129"/>
+      <c r="D66" s="115">
         <v>199</v>
       </c>
       <c r="P66" s="42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="69" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B67" s="69" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D67" s="69">
+    <row r="67" spans="1:19" ht="16">
+      <c r="A67" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="115" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C67" s="129"/>
+      <c r="D67" s="115">
         <v>199</v>
       </c>
       <c r="P67" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q67" t="s">
-        <v>1803</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="68" spans="1:19">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="69" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D68" s="69">
+      <c r="B68" s="115" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C68" s="129"/>
+      <c r="D68" s="115">
         <v>299</v>
       </c>
       <c r="P68" s="42" t="s">
@@ -17777,91 +17790,96 @@
         <v>883</v>
       </c>
       <c r="R68" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="69" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B69" s="69" t="s">
         <v>1773</v>
       </c>
-      <c r="D69" s="69">
+    </row>
+    <row r="69" spans="1:19" ht="16">
+      <c r="A69" s="133" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="122" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C69" s="134"/>
+      <c r="D69" s="122">
         <v>299</v>
       </c>
       <c r="P69" s="42" t="s">
-        <v>1818</v>
+        <v>1767</v>
       </c>
       <c r="Q69" t="s">
-        <v>1824</v>
+        <v>1773</v>
       </c>
       <c r="R69" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="70" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B70" s="73" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D70" s="69">
+    <row r="70" spans="1:19" ht="16">
+      <c r="A70" s="131" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B70" s="123" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C70" s="129"/>
+      <c r="D70" s="115">
         <v>299</v>
       </c>
       <c r="P70" s="42" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
-      <c r="A71" s="71" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B71" s="74" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D71" s="69">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="16">
+      <c r="A71" s="131" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B71" s="124" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C71" s="132"/>
+      <c r="D71" s="121">
         <v>199</v>
       </c>
       <c r="P71" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q71" t="s">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="R71" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
-      <c r="A72" s="71" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B72" s="74" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D72" s="69">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="16">
+      <c r="A72" s="131" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B72" s="124" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C72" s="132"/>
+      <c r="D72" s="121">
         <v>279</v>
       </c>
       <c r="P72" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q72" t="s">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="R72" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="A73" s="71" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B73" s="74" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D73" s="69">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="16">
+      <c r="A73" s="131" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B73" s="125" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C73" s="129"/>
+      <c r="D73" s="115">
         <v>279</v>
       </c>
       <c r="P73" s="42" t="s">
@@ -17871,135 +17889,144 @@
         <v>888</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="71" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B74" s="74" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D74" s="69">
+    <row r="74" spans="1:19" ht="16">
+      <c r="A74" s="131" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B74" s="125" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C74" s="129"/>
+      <c r="D74" s="115">
         <v>349</v>
       </c>
       <c r="P74" s="42" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
-      <c r="A75" s="71" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B75" s="75" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D75" s="69">
+    <row r="75" spans="1:19" ht="16">
+      <c r="A75" s="133" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B75" s="126" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C75" s="134"/>
+      <c r="D75" s="122">
         <v>249</v>
       </c>
       <c r="P75" s="42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
-      <c r="A76" s="71" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B76" s="76" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D76" s="69">
+    <row r="76" spans="1:19" ht="16">
+      <c r="A76" s="133" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B76" s="127" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C76" s="134"/>
+      <c r="D76" s="122">
         <v>149</v>
       </c>
       <c r="P76" s="42" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="71" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B77" s="75" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D77" s="69">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="16">
+      <c r="A77" s="133" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B77" s="126" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C77" s="134"/>
+      <c r="D77" s="122">
         <v>249</v>
       </c>
       <c r="P77" s="42" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="A78" s="71" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D78" s="69">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="16">
+      <c r="A78" s="133" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B78" s="126" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C78" s="134"/>
+      <c r="D78" s="122">
         <v>169</v>
       </c>
       <c r="P78" s="42" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="71" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B79" s="75" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D79" s="69">
+    <row r="79" spans="1:19" ht="16">
+      <c r="A79" s="131" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B79" s="125" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C79" s="129"/>
+      <c r="D79" s="115">
         <v>169</v>
       </c>
       <c r="P79" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q79" t="s">
-        <v>1826</v>
+        <v>1775</v>
       </c>
       <c r="R79" t="s">
-        <v>1819</v>
+        <v>1768</v>
       </c>
       <c r="S79" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
-      <c r="A80" s="71" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B80" s="75" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D80" s="69">
+    <row r="80" spans="1:19" ht="16">
+      <c r="A80" s="133" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B80" s="126" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C80" s="134"/>
+      <c r="D80" s="122">
         <v>199</v>
       </c>
       <c r="P80" s="42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
-      <c r="A81" s="71" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B81" s="75" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D81" s="69">
+    <row r="81" spans="1:20" ht="16">
+      <c r="A81" s="131" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B81" s="125" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C81" s="129"/>
+      <c r="D81" s="115">
         <v>179</v>
       </c>
       <c r="P81" s="42" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
-      <c r="A82" s="71" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B82" s="75" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D82" s="69">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="16">
+      <c r="A82" s="131" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B82" s="125" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C82" s="129"/>
+      <c r="D82" s="115">
         <v>199</v>
       </c>
       <c r="P82" s="42" t="s">
@@ -18009,14 +18036,15 @@
         <v>893</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
-      <c r="A83" s="71" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B83" s="75" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D83" s="69">
+    <row r="83" spans="1:20" ht="16">
+      <c r="A83" s="133" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B83" s="126" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C83" s="134"/>
+      <c r="D83" s="122">
         <v>349</v>
       </c>
       <c r="P83" s="42" t="s">
@@ -18024,13 +18052,14 @@
       </c>
     </row>
     <row r="84" spans="1:20" ht="30">
-      <c r="A84" s="66" t="s">
+      <c r="A84" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="66" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D84" s="69">
+      <c r="B84" s="116" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C84" s="129"/>
+      <c r="D84" s="115">
         <v>249</v>
       </c>
       <c r="P84" s="42" t="s">
@@ -18040,17 +18069,18 @@
         <v>884</v>
       </c>
       <c r="R84" s="26" t="s">
-        <v>1827</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="85" spans="1:20">
-      <c r="A85" s="66" t="s">
+      <c r="A85" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="66" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D85" s="69">
+      <c r="B85" s="116" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C85" s="129"/>
+      <c r="D85" s="115">
         <v>329</v>
       </c>
       <c r="P85" s="42" t="s">
@@ -18058,58 +18088,62 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="30">
-      <c r="A86" s="71" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D86" s="69">
+      <c r="A86" s="133" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B86" s="126" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C86" s="134"/>
+      <c r="D86" s="122">
         <v>249</v>
       </c>
       <c r="P86" s="42" t="s">
         <v>100</v>
       </c>
       <c r="Q86" s="26" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="71" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D87" s="69">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="16">
+      <c r="A87" s="131" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B87" s="125" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C87" s="129"/>
+      <c r="D87" s="115">
         <v>299</v>
       </c>
       <c r="P87" s="42" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="71" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B88" s="75" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D88" s="69">
+    <row r="88" spans="1:20" ht="16">
+      <c r="A88" s="131" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B88" s="125" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C88" s="129"/>
+      <c r="D88" s="115">
         <v>199</v>
       </c>
       <c r="P88" s="42" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="71" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B89" s="75" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D89" s="69">
+    <row r="89" spans="1:20" ht="16">
+      <c r="A89" s="131" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B89" s="125" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C89" s="129"/>
+      <c r="D89" s="115">
         <v>249</v>
       </c>
       <c r="P89" s="42" t="s">
@@ -18119,20 +18153,21 @@
         <v>889</v>
       </c>
       <c r="R89" t="s">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="S89" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:20">
-      <c r="A90" s="71" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D90" s="69">
+      <c r="A90" s="128" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B90" s="125" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C90" s="129"/>
+      <c r="D90" s="115">
         <v>299</v>
       </c>
       <c r="P90" s="42" t="s">
@@ -18140,13 +18175,14 @@
       </c>
     </row>
     <row r="91" spans="1:20">
-      <c r="A91" s="71" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B91" s="75" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D91" s="69">
+      <c r="A91" s="128" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B91" s="125" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C91" s="129"/>
+      <c r="D91" s="115">
         <v>199</v>
       </c>
       <c r="P91" s="42" t="s">
@@ -18166,13 +18202,14 @@
       </c>
     </row>
     <row r="92" spans="1:20">
-      <c r="A92" s="71" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B92" s="75" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D92" s="69">
+      <c r="A92" s="128" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B92" s="125" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C92" s="129"/>
+      <c r="D92" s="115">
         <v>299</v>
       </c>
       <c r="P92" s="42" t="s">
@@ -18180,13 +18217,14 @@
       </c>
     </row>
     <row r="93" spans="1:20">
-      <c r="A93" s="71" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D93" s="69">
+      <c r="A93" s="128" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B93" s="125" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C93" s="129"/>
+      <c r="D93" s="115">
         <v>299</v>
       </c>
       <c r="P93" s="42" t="s">
@@ -18194,13 +18232,14 @@
       </c>
     </row>
     <row r="94" spans="1:20">
-      <c r="A94" s="71" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B94" s="75" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D94" s="69">
+      <c r="A94" s="128" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B94" s="125" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C94" s="129"/>
+      <c r="D94" s="115">
         <v>199</v>
       </c>
       <c r="P94" s="42" t="s">
@@ -18208,13 +18247,14 @@
       </c>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="71" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B95" s="75" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D95" s="69">
+      <c r="A95" s="128" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B95" s="125" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C95" s="129"/>
+      <c r="D95" s="115">
         <v>249</v>
       </c>
       <c r="P95" s="42" t="s">
@@ -18224,20 +18264,21 @@
         <v>889</v>
       </c>
       <c r="R95" t="s">
-        <v>1829</v>
+        <v>1778</v>
       </c>
       <c r="S95" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:20">
-      <c r="A96" s="71" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B96" s="75" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D96" s="69">
+      <c r="A96" s="128" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B96" s="125" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C96" s="129"/>
+      <c r="D96" s="115">
         <v>229</v>
       </c>
       <c r="P96" s="42" t="s">
@@ -18245,16 +18286,17 @@
       </c>
     </row>
     <row r="97" spans="1:18" ht="45">
-      <c r="A97" s="71" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B97" s="75" t="s">
-        <v>1800</v>
-      </c>
-      <c r="D97" s="69">
+      <c r="A97" s="128" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B97" s="125" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C97" s="129"/>
+      <c r="D97" s="115">
         <v>199</v>
       </c>
-      <c r="P97" s="87" t="s">
+      <c r="P97" s="80" t="s">
         <v>1647</v>
       </c>
       <c r="Q97" s="26" t="s">
@@ -18262,76 +18304,57 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="71" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B98" s="75" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D98" s="69">
-        <v>249</v>
+      <c r="A98" s="128" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B98" s="125" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C98" s="129"/>
+      <c r="D98" s="115">
+        <v>269</v>
       </c>
       <c r="P98" s="42" t="s">
-        <v>100</v>
+        <v>889</v>
       </c>
       <c r="Q98" t="s">
-        <v>1821</v>
+        <v>1649</v>
       </c>
       <c r="R98" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="71" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B99" s="75" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D99" s="69">
-        <v>269</v>
-      </c>
-      <c r="P99" s="42" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1649</v>
-      </c>
-      <c r="R99" t="s">
-        <v>886</v>
-      </c>
+      <c r="A99" s="66"/>
+      <c r="B99" s="69"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="71"/>
-      <c r="B100" s="75"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="69"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="71"/>
-      <c r="B101" s="75"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="69"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="71"/>
-      <c r="B102" s="75"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="69"/>
     </row>
     <row r="103" spans="1:18">
-      <c r="A103" s="71"/>
-      <c r="B103" s="75"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="A104" s="69"/>
-      <c r="B104" s="69"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="68"/>
     </row>
     <row r="105" spans="1:18">
-      <c r="A105" s="72"/>
-      <c r="B105" s="74"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="68"/>
     </row>
     <row r="106" spans="1:18">
-      <c r="A106" s="71"/>
-      <c r="B106" s="74"/>
-    </row>
-    <row r="107" spans="1:18">
-      <c r="A107" s="71"/>
-      <c r="B107" s="74"/>
+      <c r="A106" s="66"/>
+      <c r="B106" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -29143,36 +29166,36 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="19"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121" t="s">
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113" t="s">
         <v>704</v>
       </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121" t="s">
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121" t="s">
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="19"/>
